--- a/Area de proceso PPQA/HGPRD_0.1_2015.xlsx
+++ b/Area de proceso PPQA/HGPRD_0.1_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PDS\PPQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\123DISKS\E\GitHub\gps-tracking\Area de proceso PPQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="642" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="642" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planificación!$A$12:$Y$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planificación!$A$12:$Y$40</definedName>
     <definedName name="Analista" localSheetId="0">#REF!</definedName>
     <definedName name="AreaProceso" localSheetId="0">#REF!</definedName>
     <definedName name="Artefacto" localSheetId="0">#REF!</definedName>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="270">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -653,9 +653,6 @@
     <t>Revisado / Auditado</t>
   </si>
   <si>
-    <t>SM</t>
-  </si>
-  <si>
     <t>Responsable (s) de levantar no conformidad</t>
   </si>
   <si>
@@ -692,15 +689,9 @@
     <t>BC</t>
   </si>
   <si>
-    <t>YM</t>
-  </si>
-  <si>
     <t>Jefe de Proyecto:</t>
   </si>
   <si>
-    <t>HM, JG, RR</t>
-  </si>
-  <si>
     <t>ICIC</t>
   </si>
   <si>
@@ -740,12 +731,6 @@
     <t>Llenar la lista de usuarios con los roles</t>
   </si>
   <si>
-    <t>YM,JG,RR,BC,HM</t>
-  </si>
-  <si>
-    <t>JG</t>
-  </si>
-  <si>
     <t>Documento de diseño</t>
   </si>
   <si>
@@ -758,9 +743,6 @@
     <t>GESTION DE LA CONFIGURACION</t>
   </si>
   <si>
-    <t>CPRO_Cronograma de Proyecto de Delivery</t>
-  </si>
-  <si>
     <t>PGPRO_Proceso de gestion de proyectos</t>
   </si>
   <si>
@@ -822,9 +804,6 @@
   </si>
   <si>
     <t>Cambiar la especificaciones funcionales</t>
-  </si>
-  <si>
-    <t>HM</t>
   </si>
   <si>
     <t>PP_PMC/REGR</t>
@@ -909,29 +888,121 @@
 (Jefe de Proyecto)</t>
   </si>
   <si>
-    <t>Fecha Efectiva: 20/06/2015</t>
-  </si>
-  <si>
     <t>Versión: 0.1</t>
   </si>
   <si>
-    <t>dd/mm/yyyy</t>
-  </si>
-  <si>
     <t xml:space="preserve"> REVISIÓN DE ASEGURAMIENTO DE LA CALIDAD - PRODUCTO</t>
+  </si>
+  <si>
+    <t>Fecha Efectiva: 16/06/15</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>HV</t>
+  </si>
+  <si>
+    <t>CPRO_Cronograma de Proyecto de Monitoreo</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>RQ</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>MC,GO,RQ,HV</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>GO,HV,MC,RQ</t>
+  </si>
+  <si>
+    <t>GO,HV</t>
+  </si>
+  <si>
+    <t>vie 22/05/15</t>
+  </si>
+  <si>
+    <t>mar 19/05/15</t>
+  </si>
+  <si>
+    <t>mié 01/07/15</t>
+  </si>
+  <si>
+    <t>lun 25/05/15</t>
+  </si>
+  <si>
+    <t>mié 27/05/15</t>
+  </si>
+  <si>
+    <t>jue 28/05/15</t>
+  </si>
+  <si>
+    <t>vie 29/05/15</t>
+  </si>
+  <si>
+    <t>lun 01/06/15</t>
+  </si>
+  <si>
+    <t>mar 26/05/15</t>
+  </si>
+  <si>
+    <t>mar 02/06/15</t>
+  </si>
+  <si>
+    <t>vie 12/06/15</t>
+  </si>
+  <si>
+    <t>mar 16/06/15</t>
+  </si>
+  <si>
+    <t>lun 15/06/15</t>
+  </si>
+  <si>
+    <t>mié 17/06/15</t>
+  </si>
+  <si>
+    <t>jue 18/06/15</t>
+  </si>
+  <si>
+    <t>vie 19/06/15</t>
+  </si>
+  <si>
+    <t>lun 22/06/15</t>
+  </si>
+  <si>
+    <t>mar 23/06/15</t>
+  </si>
+  <si>
+    <t>vie 26/06/15</t>
+  </si>
+  <si>
+    <t>lun 29/06/15</t>
+  </si>
+  <si>
+    <t>30+/06/2015</t>
+  </si>
+  <si>
+    <t>31/06/2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
-    <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="65">
+  <fonts count="64">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1299,17 +1370,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1321,8 +1381,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1471,18 +1537,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1998,6 +2058,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2054,7 +2129,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2364,14 +2439,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2442,10 +2509,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2504,16 +2567,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="62" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="61" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="60" fillId="24" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2552,7 +2609,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2560,38 +2617,32 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="60" fillId="29" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="29" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="29" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="61" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="62" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2628,9 +2679,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2848,8 +2902,8 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="40" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -3843,11 +3897,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1645508880"/>
-        <c:axId val="-1645507792"/>
+        <c:axId val="119118112"/>
+        <c:axId val="119118672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1645508880"/>
+        <c:axId val="119118112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3882,7 +3936,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1645507792"/>
+        <c:crossAx val="119118672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3892,7 +3946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1645507792"/>
+        <c:axId val="119118672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3937,7 +3991,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1645508880"/>
+        <c:crossAx val="119118112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4395,12 +4449,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-1645503984"/>
-        <c:axId val="-1645502896"/>
+        <c:axId val="119122032"/>
+        <c:axId val="119122592"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-1645503984"/>
+        <c:axId val="119122032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4474,7 +4528,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1645502896"/>
+        <c:crossAx val="119122592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4484,7 +4538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1645502896"/>
+        <c:axId val="119122592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4568,7 +4622,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1645503984"/>
+        <c:crossAx val="119122032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5414,7 +5468,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5443,15 +5497,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="66"/>
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
       <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -5499,26 +5553,26 @@
         <v>0.1</v>
       </c>
       <c r="D5" s="73">
-        <v>42175</v>
+        <v>42171</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F5" s="74" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G5" s="75" t="s">
         <v>69</v>
       </c>
       <c r="H5" s="76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I5" s="66"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="66"/>
       <c r="B6" s="77"/>
-      <c r="C6" s="127"/>
+      <c r="C6" s="124"/>
       <c r="D6" s="78"/>
       <c r="E6" s="79"/>
       <c r="F6" s="80"/>
@@ -5529,7 +5583,7 @@
     <row r="7" spans="1:9">
       <c r="A7" s="66"/>
       <c r="B7" s="77"/>
-      <c r="C7" s="128"/>
+      <c r="C7" s="125"/>
       <c r="D7" s="82"/>
       <c r="E7" s="79"/>
       <c r="F7" s="83"/>
@@ -5551,7 +5605,7 @@
     <row r="9" spans="1:9">
       <c r="A9" s="66"/>
       <c r="B9" s="77"/>
-      <c r="C9" s="132"/>
+      <c r="C9" s="129"/>
       <c r="D9" s="78"/>
       <c r="E9" s="79"/>
       <c r="F9" s="79"/>
@@ -5562,7 +5616,7 @@
     <row r="10" spans="1:9" ht="13.5" thickBot="1">
       <c r="B10" s="85"/>
       <c r="C10" s="86"/>
-      <c r="D10" s="126"/>
+      <c r="D10" s="123"/>
       <c r="E10" s="87"/>
       <c r="F10" s="87"/>
       <c r="G10" s="87"/>
@@ -5584,8 +5638,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5602,22 +5656,22 @@
     <row r="2" spans="1:8" s="62" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="39"/>
       <c r="B2" s="63"/>
-      <c r="C2" s="193" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="194"/>
-      <c r="E2" s="195"/>
+      <c r="C2" s="187" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="188"/>
+      <c r="E2" s="189"/>
     </row>
     <row r="3" spans="1:8" s="62" customFormat="1">
       <c r="A3" s="39"/>
-      <c r="B3" s="243" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="201" t="s">
-        <v>242</v>
-      </c>
-      <c r="D3" s="202"/>
-      <c r="E3" s="203"/>
+      <c r="B3" s="173" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="195" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="196"/>
+      <c r="E3" s="197"/>
     </row>
     <row r="4" spans="1:8" s="62" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="39"/>
@@ -5629,12 +5683,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="39"/>
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="190" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="198"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="192"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="39"/>
@@ -5657,10 +5711,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="91"/>
-      <c r="D8" s="199" t="s">
+      <c r="D8" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="200"/>
+      <c r="E8" s="194"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="39"/>
@@ -5746,62 +5800,62 @@
       <c r="A18" s="37"/>
     </row>
     <row r="19" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="187" t="s">
+      <c r="B19" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="188"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="189"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="183"/>
     </row>
     <row r="20" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="190" t="s">
+      <c r="C20" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="191"/>
-      <c r="E20" s="192"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="186"/>
     </row>
     <row r="21" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="204" t="s">
+      <c r="C21" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="205"/>
-      <c r="E21" s="206"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="200"/>
     </row>
     <row r="22" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="204" t="s">
+      <c r="C22" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="205"/>
-      <c r="E22" s="206"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="200"/>
     </row>
     <row r="23" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="204" t="s">
+      <c r="C23" s="198" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="205"/>
-      <c r="E23" s="206"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="200"/>
     </row>
     <row r="24" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="204" t="s">
+      <c r="C24" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="205"/>
-      <c r="E24" s="206"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="200"/>
     </row>
     <row r="25" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="60"/>
@@ -5814,31 +5868,31 @@
       <c r="B26" s="51"/>
     </row>
     <row r="27" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="187" t="s">
+      <c r="B27" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="188"/>
-      <c r="D27" s="188"/>
-      <c r="E27" s="189"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="183"/>
     </row>
     <row r="28" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="190" t="s">
+      <c r="C28" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="191"/>
-      <c r="E28" s="192"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="186"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="37"/>
-      <c r="B29" s="207" t="s">
+      <c r="B29" s="201" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="208"/>
-      <c r="D29" s="208"/>
-      <c r="E29" s="209"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="203"/>
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
     </row>
@@ -5847,11 +5901,11 @@
       <c r="B30" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="181" t="s">
+      <c r="C30" s="175" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="182"/>
-      <c r="E30" s="183"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="177"/>
       <c r="F30" s="58"/>
       <c r="G30" s="58"/>
     </row>
@@ -5860,11 +5914,11 @@
       <c r="B31" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="181" t="s">
+      <c r="C31" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="182"/>
-      <c r="E31" s="183"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="177"/>
       <c r="F31" s="58"/>
       <c r="G31" s="58"/>
     </row>
@@ -5873,11 +5927,11 @@
       <c r="B32" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="181" t="s">
+      <c r="C32" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="182"/>
-      <c r="E32" s="183"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="177"/>
       <c r="F32" s="58"/>
       <c r="G32" s="58"/>
     </row>
@@ -5886,11 +5940,11 @@
       <c r="B33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="181" t="s">
+      <c r="C33" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="182"/>
-      <c r="E33" s="183"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="177"/>
       <c r="F33" s="58"/>
       <c r="G33" s="58"/>
     </row>
@@ -5899,174 +5953,174 @@
       <c r="B34" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="181" t="s">
+      <c r="C34" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="182"/>
-      <c r="E34" s="183"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="177"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="37"/>
       <c r="B35" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="181" t="s">
+      <c r="C35" s="175" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="182"/>
-      <c r="E35" s="183"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="177"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="37"/>
-      <c r="B36" s="207" t="s">
+      <c r="B36" s="201" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="208"/>
-      <c r="D36" s="208"/>
-      <c r="E36" s="209"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="203"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="37"/>
       <c r="B37" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="181" t="s">
+      <c r="C37" s="175" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="182"/>
-      <c r="E37" s="183"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="177"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="37"/>
       <c r="B38" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="181" t="s">
+      <c r="C38" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="182"/>
-      <c r="E38" s="183"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="177"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="37"/>
       <c r="B39" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="181" t="s">
+      <c r="C39" s="175" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="182"/>
-      <c r="E39" s="183"/>
+      <c r="D39" s="176"/>
+      <c r="E39" s="177"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="37"/>
       <c r="B40" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="181" t="s">
+      <c r="C40" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="182"/>
-      <c r="E40" s="183"/>
+      <c r="D40" s="176"/>
+      <c r="E40" s="177"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="37"/>
       <c r="B41" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="181" t="s">
+      <c r="C41" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="182"/>
-      <c r="E41" s="183"/>
+      <c r="D41" s="176"/>
+      <c r="E41" s="177"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="37"/>
       <c r="B42" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="181" t="s">
+      <c r="C42" s="175" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="182"/>
-      <c r="E42" s="183"/>
+      <c r="D42" s="176"/>
+      <c r="E42" s="177"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="37"/>
       <c r="B43" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="181" t="s">
+      <c r="C43" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="182"/>
-      <c r="E43" s="183"/>
+      <c r="D43" s="176"/>
+      <c r="E43" s="177"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="37"/>
       <c r="B44" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="181" t="s">
+      <c r="C44" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="182"/>
-      <c r="E44" s="183"/>
+      <c r="D44" s="176"/>
+      <c r="E44" s="177"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="37"/>
       <c r="B45" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="181" t="s">
+      <c r="C45" s="175" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="182"/>
-      <c r="E45" s="183"/>
+      <c r="D45" s="176"/>
+      <c r="E45" s="177"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="37"/>
       <c r="B46" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="181" t="s">
+      <c r="C46" s="175" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="182"/>
-      <c r="E46" s="183"/>
+      <c r="D46" s="176"/>
+      <c r="E46" s="177"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="37"/>
       <c r="B47" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="181" t="s">
+      <c r="C47" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="182"/>
-      <c r="E47" s="183"/>
+      <c r="D47" s="176"/>
+      <c r="E47" s="177"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="37"/>
       <c r="B48" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="181" t="s">
+      <c r="C48" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="182"/>
-      <c r="E48" s="183"/>
+      <c r="D48" s="176"/>
+      <c r="E48" s="177"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="37"/>
       <c r="B49" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="181" t="s">
+      <c r="C49" s="175" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="182"/>
-      <c r="E49" s="183"/>
+      <c r="D49" s="176"/>
+      <c r="E49" s="177"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="58"/>
@@ -6099,23 +6153,23 @@
       <c r="M51" s="38"/>
     </row>
     <row r="52" spans="1:13" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="187" t="s">
+      <c r="B52" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="188"/>
-      <c r="D52" s="188"/>
-      <c r="E52" s="189"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="182"/>
+      <c r="E52" s="183"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="58"/>
       <c r="B53" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="190" t="s">
+      <c r="C53" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="191"/>
-      <c r="E53" s="192"/>
+      <c r="D53" s="185"/>
+      <c r="E53" s="186"/>
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
       <c r="H53" s="58"/>
@@ -6130,132 +6184,132 @@
       <c r="B54" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="C54" s="181" t="s">
+      <c r="C54" s="175" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="182"/>
-      <c r="E54" s="183"/>
+      <c r="D54" s="176"/>
+      <c r="E54" s="177"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="37"/>
       <c r="B55" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="181" t="s">
+      <c r="C55" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="182"/>
-      <c r="E55" s="183"/>
+      <c r="D55" s="176"/>
+      <c r="E55" s="177"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="37"/>
       <c r="B56" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="181" t="s">
+      <c r="C56" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="182"/>
-      <c r="E56" s="183"/>
+      <c r="D56" s="176"/>
+      <c r="E56" s="177"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="37"/>
       <c r="B57" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="181" t="s">
+      <c r="C57" s="175" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="185"/>
-      <c r="E57" s="186"/>
+      <c r="D57" s="179"/>
+      <c r="E57" s="180"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="37"/>
       <c r="B58" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="181" t="s">
+      <c r="C58" s="175" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="185"/>
-      <c r="E58" s="186"/>
+      <c r="D58" s="179"/>
+      <c r="E58" s="180"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="37"/>
       <c r="B59" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="181" t="s">
+      <c r="C59" s="175" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="185"/>
-      <c r="E59" s="186"/>
+      <c r="D59" s="179"/>
+      <c r="E59" s="180"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="37"/>
       <c r="B60" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="181" t="s">
+      <c r="C60" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="185"/>
-      <c r="E60" s="186"/>
+      <c r="D60" s="179"/>
+      <c r="E60" s="180"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="37"/>
       <c r="B61" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="184" t="s">
+      <c r="C61" s="178" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="185"/>
-      <c r="E61" s="186"/>
+      <c r="D61" s="179"/>
+      <c r="E61" s="180"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="37"/>
       <c r="B62" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="181" t="s">
+      <c r="C62" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="185"/>
-      <c r="E62" s="186"/>
+      <c r="D62" s="179"/>
+      <c r="E62" s="180"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="37"/>
       <c r="B63" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="184" t="s">
+      <c r="C63" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="185"/>
-      <c r="E63" s="186"/>
+      <c r="D63" s="179"/>
+      <c r="E63" s="180"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="37"/>
       <c r="B64" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="184" t="s">
+      <c r="C64" s="178" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="185"/>
-      <c r="E64" s="186"/>
+      <c r="D64" s="179"/>
+      <c r="E64" s="180"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="37"/>
       <c r="B65" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="181" t="s">
+      <c r="C65" s="175" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="182"/>
-      <c r="E65" s="183"/>
+      <c r="D65" s="176"/>
+      <c r="E65" s="177"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="37"/>
@@ -6266,200 +6320,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="37"/>
-      <c r="B67" s="211"/>
-      <c r="C67" s="211"/>
-      <c r="D67" s="211"/>
-      <c r="E67" s="211"/>
+      <c r="B67" s="205"/>
+      <c r="C67" s="205"/>
+      <c r="D67" s="205"/>
+      <c r="E67" s="205"/>
       <c r="F67" s="57"/>
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="37"/>
-      <c r="B68" s="210"/>
-      <c r="C68" s="210"/>
-      <c r="D68" s="210"/>
-      <c r="E68" s="210"/>
+      <c r="B68" s="204"/>
+      <c r="C68" s="204"/>
+      <c r="D68" s="204"/>
+      <c r="E68" s="204"/>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
       <c r="H68" s="57"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="37"/>
-      <c r="B69" s="210"/>
-      <c r="C69" s="210"/>
-      <c r="D69" s="210"/>
-      <c r="E69" s="210"/>
+      <c r="B69" s="204"/>
+      <c r="C69" s="204"/>
+      <c r="D69" s="204"/>
+      <c r="E69" s="204"/>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
       <c r="H69" s="57"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="37"/>
-      <c r="B70" s="210"/>
-      <c r="C70" s="210"/>
-      <c r="D70" s="210"/>
-      <c r="E70" s="210"/>
+      <c r="B70" s="204"/>
+      <c r="C70" s="204"/>
+      <c r="D70" s="204"/>
+      <c r="E70" s="204"/>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="37"/>
-      <c r="B71" s="210"/>
-      <c r="C71" s="210"/>
-      <c r="D71" s="210"/>
-      <c r="E71" s="210"/>
+      <c r="B71" s="204"/>
+      <c r="C71" s="204"/>
+      <c r="D71" s="204"/>
+      <c r="E71" s="204"/>
       <c r="F71" s="57"/>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="37"/>
-      <c r="B72" s="210"/>
-      <c r="C72" s="210"/>
-      <c r="D72" s="210"/>
-      <c r="E72" s="210"/>
+      <c r="B72" s="204"/>
+      <c r="C72" s="204"/>
+      <c r="D72" s="204"/>
+      <c r="E72" s="204"/>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="42"/>
-      <c r="B73" s="210"/>
-      <c r="C73" s="210"/>
-      <c r="D73" s="210"/>
-      <c r="E73" s="210"/>
+      <c r="B73" s="204"/>
+      <c r="C73" s="204"/>
+      <c r="D73" s="204"/>
+      <c r="E73" s="204"/>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
       <c r="H73" s="57"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="37"/>
-      <c r="B74" s="210"/>
-      <c r="C74" s="210"/>
-      <c r="D74" s="210"/>
-      <c r="E74" s="210"/>
+      <c r="B74" s="204"/>
+      <c r="C74" s="204"/>
+      <c r="D74" s="204"/>
+      <c r="E74" s="204"/>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
       <c r="H74" s="57"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="37"/>
-      <c r="B75" s="210"/>
-      <c r="C75" s="210"/>
-      <c r="D75" s="210"/>
-      <c r="E75" s="210"/>
+      <c r="B75" s="204"/>
+      <c r="C75" s="204"/>
+      <c r="D75" s="204"/>
+      <c r="E75" s="204"/>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="37"/>
-      <c r="B76" s="210"/>
-      <c r="C76" s="210"/>
-      <c r="D76" s="210"/>
-      <c r="E76" s="210"/>
+      <c r="B76" s="204"/>
+      <c r="C76" s="204"/>
+      <c r="D76" s="204"/>
+      <c r="E76" s="204"/>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="37"/>
-      <c r="B77" s="210"/>
-      <c r="C77" s="210"/>
-      <c r="D77" s="210"/>
-      <c r="E77" s="210"/>
+      <c r="B77" s="204"/>
+      <c r="C77" s="204"/>
+      <c r="D77" s="204"/>
+      <c r="E77" s="204"/>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
       <c r="H77" s="57"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="37"/>
-      <c r="B78" s="210"/>
-      <c r="C78" s="210"/>
-      <c r="D78" s="210"/>
-      <c r="E78" s="210"/>
+      <c r="B78" s="204"/>
+      <c r="C78" s="204"/>
+      <c r="D78" s="204"/>
+      <c r="E78" s="204"/>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
       <c r="H78" s="57"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="42"/>
-      <c r="B79" s="210"/>
-      <c r="C79" s="210"/>
-      <c r="D79" s="210"/>
-      <c r="E79" s="210"/>
+      <c r="B79" s="204"/>
+      <c r="C79" s="204"/>
+      <c r="D79" s="204"/>
+      <c r="E79" s="204"/>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
       <c r="H79" s="57"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="42"/>
-      <c r="B80" s="210"/>
-      <c r="C80" s="210"/>
-      <c r="D80" s="210"/>
-      <c r="E80" s="210"/>
+      <c r="B80" s="204"/>
+      <c r="C80" s="204"/>
+      <c r="D80" s="204"/>
+      <c r="E80" s="204"/>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
       <c r="H80" s="57"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="42"/>
-      <c r="B81" s="210"/>
-      <c r="C81" s="210"/>
-      <c r="D81" s="210"/>
-      <c r="E81" s="210"/>
+      <c r="B81" s="204"/>
+      <c r="C81" s="204"/>
+      <c r="D81" s="204"/>
+      <c r="E81" s="204"/>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
       <c r="H81" s="57"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="42"/>
-      <c r="B82" s="210"/>
-      <c r="C82" s="210"/>
-      <c r="D82" s="210"/>
-      <c r="E82" s="210"/>
+      <c r="B82" s="204"/>
+      <c r="C82" s="204"/>
+      <c r="D82" s="204"/>
+      <c r="E82" s="204"/>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
       <c r="H82" s="57"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="42"/>
-      <c r="B83" s="210"/>
-      <c r="C83" s="210"/>
-      <c r="D83" s="210"/>
-      <c r="E83" s="210"/>
+      <c r="B83" s="204"/>
+      <c r="C83" s="204"/>
+      <c r="D83" s="204"/>
+      <c r="E83" s="204"/>
       <c r="F83" s="57"/>
       <c r="G83" s="57"/>
       <c r="H83" s="57"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="42"/>
-      <c r="B84" s="210"/>
-      <c r="C84" s="210"/>
-      <c r="D84" s="210"/>
-      <c r="E84" s="210"/>
+      <c r="B84" s="204"/>
+      <c r="C84" s="204"/>
+      <c r="D84" s="204"/>
+      <c r="E84" s="204"/>
       <c r="F84" s="57"/>
       <c r="G84" s="57"/>
       <c r="H84" s="57"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="42"/>
-      <c r="B85" s="210"/>
-      <c r="C85" s="210"/>
-      <c r="D85" s="210"/>
-      <c r="E85" s="210"/>
+      <c r="B85" s="204"/>
+      <c r="C85" s="204"/>
+      <c r="D85" s="204"/>
+      <c r="E85" s="204"/>
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
       <c r="H85" s="57"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="42"/>
-      <c r="B86" s="210"/>
-      <c r="C86" s="210"/>
-      <c r="D86" s="210"/>
-      <c r="E86" s="210"/>
+      <c r="B86" s="204"/>
+      <c r="C86" s="204"/>
+      <c r="D86" s="204"/>
+      <c r="E86" s="204"/>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
       <c r="H86" s="57"/>
@@ -6552,10 +6606,10 @@
   <sheetPr codeName="Hoja2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A3:Y45"/>
+  <dimension ref="A3:Y41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -6576,91 +6630,91 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="217" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="217"/>
+      <c r="B3" s="211" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="211"/>
     </row>
     <row r="4" spans="2:25" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1"/>
     <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="212" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="213"/>
-      <c r="D6" s="214" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="215"/>
-      <c r="F6" s="216"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="218"/>
+      <c r="B6" s="206" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="207"/>
+      <c r="D6" s="208" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" s="209"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="212"/>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="212" t="s">
+      <c r="B7" s="206" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="213"/>
-      <c r="D7" s="214" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="215"/>
-      <c r="F7" s="216"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="208" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="209"/>
+      <c r="F7" s="210"/>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="212" t="s">
+      <c r="B8" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="213"/>
-      <c r="D8" s="214" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" s="215"/>
-      <c r="F8" s="216"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="208" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="209"/>
+      <c r="F8" s="210"/>
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="213"/>
-      <c r="D9" s="157" t="s">
-        <v>244</v>
-      </c>
-      <c r="E9" s="107" t="s">
+      <c r="C9" s="207"/>
+      <c r="D9" s="152">
+        <v>42175</v>
+      </c>
+      <c r="E9" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="157" t="s">
-        <v>244</v>
-      </c>
-      <c r="H9" s="158"/>
+      <c r="F9" s="152">
+        <v>42205</v>
+      </c>
+      <c r="H9" s="153"/>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="213"/>
-      <c r="D10" s="214" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="215"/>
-      <c r="F10" s="216"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="208" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="209"/>
+      <c r="F10" s="210"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="20" customFormat="1" ht="15" customHeight="1">
@@ -6681,7 +6735,7 @@
         <v>101</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>156</v>
@@ -6718,37 +6772,37 @@
       <c r="C13" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="148" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="149" t="s">
-        <v>192</v>
-      </c>
-      <c r="F13" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H13" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I13" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J13" s="146">
+      <c r="D13" s="143" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="144" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="140" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="140" t="s">
+        <v>241</v>
+      </c>
+      <c r="H13" s="141">
+        <v>42143</v>
+      </c>
+      <c r="I13" s="141">
+        <v>42143</v>
+      </c>
+      <c r="J13" s="142">
         <v>2</v>
       </c>
-      <c r="K13" s="145">
-        <v>41979</v>
-      </c>
-      <c r="L13" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M13" s="104">
+      <c r="K13" s="141">
+        <v>42143</v>
+      </c>
+      <c r="L13" s="141">
+        <v>42143</v>
+      </c>
+      <c r="M13" s="102">
         <v>2</v>
       </c>
-      <c r="N13" s="104"/>
+      <c r="N13" s="102"/>
     </row>
     <row r="14" spans="2:25" ht="24">
       <c r="B14" s="36">
@@ -6757,37 +6811,37 @@
       <c r="C14" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="148" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="149" t="s">
-        <v>193</v>
-      </c>
-      <c r="F14" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G14" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H14" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I14" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J14" s="146">
+      <c r="D14" s="143" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="140" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" s="140" t="s">
+        <v>242</v>
+      </c>
+      <c r="H14" s="141">
+        <v>42146</v>
+      </c>
+      <c r="I14" s="141">
+        <v>42146</v>
+      </c>
+      <c r="J14" s="142">
         <v>2</v>
       </c>
-      <c r="K14" s="147">
-        <v>41979</v>
-      </c>
-      <c r="L14" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M14" s="104">
+      <c r="K14" s="141">
+        <v>42146</v>
+      </c>
+      <c r="L14" s="141">
+        <v>42146</v>
+      </c>
+      <c r="M14" s="102">
         <v>2</v>
       </c>
-      <c r="N14" s="104"/>
+      <c r="N14" s="102"/>
     </row>
     <row r="15" spans="2:25" ht="24">
       <c r="B15" s="36">
@@ -6796,37 +6850,37 @@
       <c r="C15" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="148" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="149" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G15" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H15" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I15" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J15" s="146">
+      <c r="D15" s="143" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="144" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="140" t="s">
+        <v>238</v>
+      </c>
+      <c r="G15" s="140" t="s">
+        <v>241</v>
+      </c>
+      <c r="H15" s="141">
+        <v>42144</v>
+      </c>
+      <c r="I15" s="141">
+        <v>42144</v>
+      </c>
+      <c r="J15" s="142">
         <v>1.5</v>
       </c>
-      <c r="K15" s="147">
-        <v>41979</v>
-      </c>
-      <c r="L15" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M15" s="104">
+      <c r="K15" s="141">
+        <v>42144</v>
+      </c>
+      <c r="L15" s="141">
+        <v>42144</v>
+      </c>
+      <c r="M15" s="102">
         <v>1.8</v>
       </c>
-      <c r="N15" s="104"/>
+      <c r="N15" s="102"/>
     </row>
     <row r="16" spans="2:25" ht="24">
       <c r="B16" s="36">
@@ -6835,37 +6889,37 @@
       <c r="C16" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="148" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="149" t="s">
-        <v>188</v>
-      </c>
-      <c r="F16" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G16" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H16" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I16" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J16" s="146">
+      <c r="D16" s="143" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="144" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="140" t="s">
+        <v>241</v>
+      </c>
+      <c r="G16" s="140" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="141">
+        <v>42186</v>
+      </c>
+      <c r="I16" s="141">
+        <v>42186</v>
+      </c>
+      <c r="J16" s="142">
         <v>2</v>
       </c>
-      <c r="K16" s="147">
-        <v>41980</v>
-      </c>
-      <c r="L16" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M16" s="104">
+      <c r="K16" s="141">
+        <v>42186</v>
+      </c>
+      <c r="L16" s="141">
+        <v>42186</v>
+      </c>
+      <c r="M16" s="102">
         <v>1.5</v>
       </c>
-      <c r="N16" s="104"/>
+      <c r="N16" s="102"/>
     </row>
     <row r="17" spans="1:14" ht="24">
       <c r="B17" s="36">
@@ -6874,37 +6928,37 @@
       <c r="C17" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="148" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="149" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G17" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H17" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I17" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J17" s="146">
+      <c r="D17" s="143" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="144" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="140" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="140" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="141">
+        <v>42186</v>
+      </c>
+      <c r="I17" s="141">
+        <v>42186</v>
+      </c>
+      <c r="J17" s="142">
         <v>2</v>
       </c>
-      <c r="K17" s="147">
-        <v>41981</v>
-      </c>
-      <c r="L17" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M17" s="104">
+      <c r="K17" s="141">
+        <v>42186</v>
+      </c>
+      <c r="L17" s="141">
+        <v>42186</v>
+      </c>
+      <c r="M17" s="102">
         <v>1.5</v>
       </c>
-      <c r="N17" s="104"/>
+      <c r="N17" s="102"/>
     </row>
     <row r="18" spans="1:14" ht="24">
       <c r="B18" s="36">
@@ -6913,37 +6967,37 @@
       <c r="C18" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="D18" s="148" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="149" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G18" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H18" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I18" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J18" s="146">
+      <c r="D18" s="143" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="140" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" s="140" t="s">
+        <v>241</v>
+      </c>
+      <c r="H18" s="141">
+        <v>42149</v>
+      </c>
+      <c r="I18" s="141">
+        <v>42149</v>
+      </c>
+      <c r="J18" s="142">
         <v>3</v>
       </c>
-      <c r="K18" s="147">
-        <v>41981</v>
-      </c>
-      <c r="L18" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M18" s="104">
+      <c r="K18" s="141">
+        <v>42149</v>
+      </c>
+      <c r="L18" s="141">
+        <v>42149</v>
+      </c>
+      <c r="M18" s="102">
         <v>2.5</v>
       </c>
-      <c r="N18" s="104"/>
+      <c r="N18" s="102"/>
     </row>
     <row r="19" spans="1:14" ht="24">
       <c r="B19" s="36">
@@ -6952,37 +7006,37 @@
       <c r="C19" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="148" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="149" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I19" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J19" s="146">
+      <c r="D19" s="143" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="144" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="140" t="s">
+        <v>239</v>
+      </c>
+      <c r="G19" s="140" t="s">
+        <v>242</v>
+      </c>
+      <c r="H19" s="141">
+        <v>42149</v>
+      </c>
+      <c r="I19" s="141">
+        <v>42149</v>
+      </c>
+      <c r="J19" s="142">
         <v>3</v>
       </c>
-      <c r="K19" s="147">
-        <v>41982</v>
-      </c>
-      <c r="L19" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M19" s="104">
+      <c r="K19" s="141">
+        <v>42149</v>
+      </c>
+      <c r="L19" s="141">
+        <v>42149</v>
+      </c>
+      <c r="M19" s="102">
         <v>2.5</v>
       </c>
-      <c r="N19" s="104"/>
+      <c r="N19" s="102"/>
     </row>
     <row r="20" spans="1:14" ht="24">
       <c r="B20" s="36">
@@ -6991,232 +7045,232 @@
       <c r="C20" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="148" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="150" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G20" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H20" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I20" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J20" s="146">
+      <c r="D20" s="143" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="145" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="140" t="s">
+        <v>239</v>
+      </c>
+      <c r="G20" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="H20" s="141">
+        <v>42151</v>
+      </c>
+      <c r="I20" s="141">
+        <v>42151</v>
+      </c>
+      <c r="J20" s="142">
         <v>1</v>
       </c>
-      <c r="K20" s="147">
-        <v>41979</v>
-      </c>
-      <c r="L20" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M20" s="104">
+      <c r="K20" s="141">
+        <v>42151</v>
+      </c>
+      <c r="L20" s="141">
+        <v>42151</v>
+      </c>
+      <c r="M20" s="102">
         <v>1</v>
       </c>
-      <c r="N20" s="104"/>
+      <c r="N20" s="102"/>
     </row>
     <row r="21" spans="1:14" ht="24">
       <c r="B21" s="36">
         <v>9</v>
       </c>
-      <c r="C21" s="139" t="s">
+      <c r="C21" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="151" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" s="152" t="s">
-        <v>198</v>
-      </c>
-      <c r="F21" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G21" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H21" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I21" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J21" s="146">
+      <c r="D21" s="146" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="147" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="140" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="140" t="s">
+        <v>241</v>
+      </c>
+      <c r="H21" s="141">
+        <v>42152</v>
+      </c>
+      <c r="I21" s="141">
+        <v>42152</v>
+      </c>
+      <c r="J21" s="142">
         <v>1</v>
       </c>
-      <c r="K21" s="147">
-        <v>41979</v>
-      </c>
-      <c r="L21" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M21" s="104">
+      <c r="K21" s="141">
+        <v>42152</v>
+      </c>
+      <c r="L21" s="141">
+        <v>42152</v>
+      </c>
+      <c r="M21" s="102">
         <v>1</v>
       </c>
-      <c r="N21" s="104"/>
+      <c r="N21" s="102"/>
     </row>
     <row r="22" spans="1:14" ht="24">
       <c r="B22" s="36">
         <v>10</v>
       </c>
-      <c r="C22" s="139" t="s">
+      <c r="C22" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="151" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" s="152" t="s">
-        <v>199</v>
-      </c>
-      <c r="F22" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G22" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H22" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I22" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J22" s="146">
+      <c r="D22" s="146" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="147" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="140" t="s">
+        <v>241</v>
+      </c>
+      <c r="G22" s="140" t="s">
+        <v>239</v>
+      </c>
+      <c r="H22" s="141">
+        <v>42156</v>
+      </c>
+      <c r="I22" s="141">
+        <v>42156</v>
+      </c>
+      <c r="J22" s="142">
         <v>1</v>
       </c>
-      <c r="K22" s="147">
-        <v>41979</v>
-      </c>
-      <c r="L22" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M22" s="104">
+      <c r="K22" s="141">
+        <v>42156</v>
+      </c>
+      <c r="L22" s="141">
+        <v>42156</v>
+      </c>
+      <c r="M22" s="102">
         <v>1.5</v>
       </c>
-      <c r="N22" s="104"/>
+      <c r="N22" s="102"/>
     </row>
     <row r="23" spans="1:14" ht="24">
       <c r="B23" s="36">
         <v>11</v>
       </c>
-      <c r="C23" s="139" t="s">
+      <c r="C23" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="151" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="152" t="s">
-        <v>200</v>
-      </c>
-      <c r="F23" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G23" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H23" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I23" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J23" s="146">
+      <c r="D23" s="146" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="147" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="140" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" s="140" t="s">
+        <v>241</v>
+      </c>
+      <c r="H23" s="141">
+        <v>42153</v>
+      </c>
+      <c r="I23" s="141">
+        <v>42153</v>
+      </c>
+      <c r="J23" s="142">
         <v>1.5</v>
       </c>
-      <c r="K23" s="147">
-        <v>41979</v>
-      </c>
-      <c r="L23" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M23" s="104">
+      <c r="K23" s="141">
+        <v>42153</v>
+      </c>
+      <c r="L23" s="141">
+        <v>42153</v>
+      </c>
+      <c r="M23" s="102">
         <v>1.6</v>
       </c>
-      <c r="N23" s="104"/>
+      <c r="N23" s="102"/>
     </row>
     <row r="24" spans="1:14" ht="24">
       <c r="B24" s="36">
         <v>12</v>
       </c>
-      <c r="C24" s="139" t="s">
+      <c r="C24" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="151" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="152" t="s">
-        <v>201</v>
-      </c>
-      <c r="F24" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H24" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I24" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J24" s="146">
+      <c r="D24" s="146" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="147" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24" s="140" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="H24" s="141">
+        <v>42157</v>
+      </c>
+      <c r="I24" s="141">
+        <v>42157</v>
+      </c>
+      <c r="J24" s="142">
         <v>1</v>
       </c>
-      <c r="K24" s="147">
-        <v>41979</v>
-      </c>
-      <c r="L24" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M24" s="104">
+      <c r="K24" s="141">
+        <v>42157</v>
+      </c>
+      <c r="L24" s="141">
+        <v>42157</v>
+      </c>
+      <c r="M24" s="102">
         <v>1.5</v>
       </c>
-      <c r="N24" s="104"/>
+      <c r="N24" s="102"/>
     </row>
     <row r="25" spans="1:14" ht="24">
       <c r="B25" s="36">
         <v>13</v>
       </c>
-      <c r="C25" s="139" t="s">
+      <c r="C25" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="151" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" s="153" t="s">
-        <v>202</v>
-      </c>
-      <c r="F25" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G25" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H25" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I25" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J25" s="146">
+      <c r="D25" s="146" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="148" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" s="140" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="H25" s="141">
+        <v>42157</v>
+      </c>
+      <c r="I25" s="141">
+        <v>42157</v>
+      </c>
+      <c r="J25" s="142">
         <v>2</v>
       </c>
-      <c r="K25" s="147">
-        <v>41979</v>
-      </c>
-      <c r="L25" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M25" s="104">
+      <c r="K25" s="141">
+        <v>42157</v>
+      </c>
+      <c r="L25" s="141">
+        <v>42157</v>
+      </c>
+      <c r="M25" s="102">
         <v>3</v>
       </c>
-      <c r="N25" s="104"/>
+      <c r="N25" s="102"/>
     </row>
     <row r="26" spans="1:14" ht="24">
       <c r="B26" s="36">
@@ -7225,37 +7279,37 @@
       <c r="C26" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="154" t="s">
-        <v>164</v>
-      </c>
-      <c r="E26" s="155" t="s">
-        <v>175</v>
-      </c>
-      <c r="F26" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H26" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I26" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J26" s="146">
+      <c r="D26" s="149" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="150" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="140" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" s="140" t="s">
+        <v>241</v>
+      </c>
+      <c r="H26" s="141">
+        <v>42167</v>
+      </c>
+      <c r="I26" s="141">
+        <v>42167</v>
+      </c>
+      <c r="J26" s="142">
         <v>1</v>
       </c>
-      <c r="K26" s="147">
-        <v>41979</v>
-      </c>
-      <c r="L26" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M26" s="104">
+      <c r="K26" s="141">
+        <v>42167</v>
+      </c>
+      <c r="L26" s="141">
+        <v>42167</v>
+      </c>
+      <c r="M26" s="102">
         <v>2</v>
       </c>
-      <c r="N26" s="104"/>
+      <c r="N26" s="102"/>
     </row>
     <row r="27" spans="1:14" ht="24">
       <c r="B27" s="36">
@@ -7264,37 +7318,37 @@
       <c r="C27" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="154" t="s">
-        <v>164</v>
-      </c>
-      <c r="E27" s="156" t="s">
-        <v>174</v>
-      </c>
-      <c r="F27" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G27" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H27" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I27" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J27" s="146">
+      <c r="D27" s="149" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="151" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="140" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" s="140" t="s">
+        <v>242</v>
+      </c>
+      <c r="H27" s="141">
+        <v>42171</v>
+      </c>
+      <c r="I27" s="141">
+        <v>42171</v>
+      </c>
+      <c r="J27" s="142">
         <v>2</v>
       </c>
-      <c r="K27" s="147">
-        <v>41979</v>
-      </c>
-      <c r="L27" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M27" s="104">
+      <c r="K27" s="141">
+        <v>42171</v>
+      </c>
+      <c r="L27" s="141">
+        <v>42171</v>
+      </c>
+      <c r="M27" s="102">
         <v>3</v>
       </c>
-      <c r="N27" s="104"/>
+      <c r="N27" s="102"/>
     </row>
     <row r="28" spans="1:14" ht="24">
       <c r="B28" s="36">
@@ -7303,37 +7357,37 @@
       <c r="C28" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="154" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" s="155" t="s">
-        <v>178</v>
-      </c>
-      <c r="F28" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G28" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H28" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I28" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J28" s="146">
+      <c r="D28" s="149" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="150" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" s="140" t="s">
+        <v>239</v>
+      </c>
+      <c r="G28" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="141">
+        <v>42171</v>
+      </c>
+      <c r="I28" s="141">
+        <v>42171</v>
+      </c>
+      <c r="J28" s="142">
         <v>2.5</v>
       </c>
-      <c r="K28" s="147">
-        <v>41979</v>
-      </c>
-      <c r="L28" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M28" s="104">
+      <c r="K28" s="141">
+        <v>42171</v>
+      </c>
+      <c r="L28" s="141">
+        <v>42171</v>
+      </c>
+      <c r="M28" s="102">
         <v>2</v>
       </c>
-      <c r="N28" s="104"/>
+      <c r="N28" s="102"/>
     </row>
     <row r="29" spans="1:14" ht="24">
       <c r="A29" s="10"/>
@@ -7343,37 +7397,37 @@
       <c r="C29" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="154" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="150" t="s">
-        <v>176</v>
-      </c>
-      <c r="F29" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G29" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H29" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I29" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J29" s="146">
+      <c r="D29" s="149" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="145" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="140" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" s="140" t="s">
+        <v>241</v>
+      </c>
+      <c r="H29" s="141">
+        <v>42170</v>
+      </c>
+      <c r="I29" s="141">
+        <v>42170</v>
+      </c>
+      <c r="J29" s="142">
         <v>2</v>
       </c>
-      <c r="K29" s="147">
-        <v>41979</v>
-      </c>
-      <c r="L29" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M29" s="104">
+      <c r="K29" s="141">
+        <v>42170</v>
+      </c>
+      <c r="L29" s="141">
+        <v>42170</v>
+      </c>
+      <c r="M29" s="102">
         <v>2</v>
       </c>
-      <c r="N29" s="104"/>
+      <c r="N29" s="102"/>
     </row>
     <row r="30" spans="1:14" ht="33.75" customHeight="1">
       <c r="A30" s="10"/>
@@ -7383,197 +7437,197 @@
       <c r="C30" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="154" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" s="150" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H30" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I30" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J30" s="146">
+      <c r="D30" s="149" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="145" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="140" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="H30" s="141">
+        <v>42172</v>
+      </c>
+      <c r="I30" s="141">
+        <v>42172</v>
+      </c>
+      <c r="J30" s="142">
         <v>1.5</v>
       </c>
-      <c r="K30" s="147">
-        <v>41979</v>
-      </c>
-      <c r="L30" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M30" s="104">
+      <c r="K30" s="141">
+        <v>42172</v>
+      </c>
+      <c r="L30" s="141">
+        <v>42172</v>
+      </c>
+      <c r="M30" s="102">
         <v>1.5</v>
       </c>
-      <c r="N30" s="104"/>
+      <c r="N30" s="102"/>
     </row>
     <row r="31" spans="1:14" ht="24">
       <c r="A31" s="10"/>
       <c r="B31" s="36">
         <v>19</v>
       </c>
-      <c r="C31" s="139" t="s">
+      <c r="C31" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="159" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" s="152" t="s">
-        <v>205</v>
-      </c>
-      <c r="F31" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G31" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H31" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I31" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J31" s="146">
+      <c r="D31" s="154" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="147" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="140" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" s="140" t="s">
+        <v>241</v>
+      </c>
+      <c r="H31" s="141">
+        <v>42174</v>
+      </c>
+      <c r="I31" s="141">
+        <v>42174</v>
+      </c>
+      <c r="J31" s="142">
         <v>1.5</v>
       </c>
-      <c r="K31" s="147">
-        <v>41979</v>
-      </c>
-      <c r="L31" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M31" s="104">
+      <c r="K31" s="141">
+        <v>42174</v>
+      </c>
+      <c r="L31" s="141">
+        <v>42174</v>
+      </c>
+      <c r="M31" s="102">
         <v>2</v>
       </c>
-      <c r="N31" s="104"/>
+      <c r="N31" s="102"/>
     </row>
     <row r="32" spans="1:14" ht="24">
       <c r="A32" s="10"/>
       <c r="B32" s="36">
         <v>20</v>
       </c>
-      <c r="C32" s="139" t="s">
+      <c r="C32" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="159" t="s">
-        <v>191</v>
-      </c>
-      <c r="E32" s="152" t="s">
-        <v>206</v>
-      </c>
-      <c r="F32" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G32" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H32" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I32" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J32" s="146">
+      <c r="D32" s="154" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="147" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="H32" s="141">
+        <v>42178</v>
+      </c>
+      <c r="I32" s="141">
+        <v>42178</v>
+      </c>
+      <c r="J32" s="142">
         <v>1</v>
       </c>
-      <c r="K32" s="147">
-        <v>41979</v>
-      </c>
-      <c r="L32" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M32" s="104">
+      <c r="K32" s="141">
+        <v>42178</v>
+      </c>
+      <c r="L32" s="141">
+        <v>42178</v>
+      </c>
+      <c r="M32" s="102">
         <v>1</v>
       </c>
-      <c r="N32" s="104"/>
+      <c r="N32" s="102"/>
     </row>
     <row r="33" spans="1:14" ht="24">
       <c r="A33" s="10"/>
       <c r="B33" s="36">
         <v>21</v>
       </c>
-      <c r="C33" s="139" t="s">
+      <c r="C33" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="159" t="s">
-        <v>191</v>
-      </c>
-      <c r="E33" s="152" t="s">
-        <v>207</v>
-      </c>
-      <c r="F33" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G33" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H33" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I33" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J33" s="146">
+      <c r="D33" s="154" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="147" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="140" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" s="140" t="s">
+        <v>239</v>
+      </c>
+      <c r="H33" s="141">
+        <v>42177</v>
+      </c>
+      <c r="I33" s="141">
+        <v>42177</v>
+      </c>
+      <c r="J33" s="142">
         <v>0.5</v>
       </c>
-      <c r="K33" s="147">
-        <v>41979</v>
-      </c>
-      <c r="L33" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M33" s="104">
+      <c r="K33" s="141">
+        <v>42177</v>
+      </c>
+      <c r="L33" s="141">
+        <v>42177</v>
+      </c>
+      <c r="M33" s="102">
         <v>1</v>
       </c>
-      <c r="N33" s="104"/>
+      <c r="N33" s="102"/>
     </row>
     <row r="34" spans="1:14" ht="24">
       <c r="A34" s="10"/>
       <c r="B34" s="36">
         <v>22</v>
       </c>
-      <c r="C34" s="161" t="s">
+      <c r="C34" s="156" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="162" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" s="163" t="s">
-        <v>173</v>
-      </c>
-      <c r="F34" s="164" t="s">
+      <c r="D34" s="157" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="G34" s="164" t="s">
-        <v>169</v>
-      </c>
-      <c r="H34" s="165">
-        <v>41832</v>
-      </c>
-      <c r="I34" s="165">
-        <v>41832</v>
-      </c>
-      <c r="J34" s="166">
+      <c r="F34" s="159" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" s="159" t="s">
+        <v>239</v>
+      </c>
+      <c r="H34" s="160">
+        <v>42178</v>
+      </c>
+      <c r="I34" s="160">
+        <v>42178</v>
+      </c>
+      <c r="J34" s="161">
         <v>1.5</v>
       </c>
-      <c r="K34" s="167">
-        <v>41979</v>
-      </c>
-      <c r="L34" s="168">
-        <v>41840</v>
-      </c>
-      <c r="M34" s="104">
+      <c r="K34" s="160">
+        <v>42178</v>
+      </c>
+      <c r="L34" s="160">
+        <v>42178</v>
+      </c>
+      <c r="M34" s="102">
         <v>2</v>
       </c>
-      <c r="N34" s="104"/>
+      <c r="N34" s="102"/>
     </row>
     <row r="35" spans="1:14" ht="24">
       <c r="A35" s="10"/>
@@ -7583,166 +7637,103 @@
       <c r="C35" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="159" t="s">
-        <v>191</v>
-      </c>
-      <c r="E35" s="143" t="s">
-        <v>204</v>
-      </c>
-      <c r="F35" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G35" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I35" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J35" s="146">
+      <c r="D35" s="154" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" s="140" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" s="140" t="s">
+        <v>239</v>
+      </c>
+      <c r="H35" s="141">
+        <v>42178</v>
+      </c>
+      <c r="I35" s="141">
+        <v>42178</v>
+      </c>
+      <c r="J35" s="142">
         <v>1.5</v>
       </c>
-      <c r="K35" s="147">
-        <v>41979</v>
-      </c>
-      <c r="L35" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M35" s="104"/>
-      <c r="N35" s="104"/>
+      <c r="K35" s="141">
+        <v>42178</v>
+      </c>
+      <c r="L35" s="141">
+        <v>42178</v>
+      </c>
+      <c r="M35" s="102"/>
+      <c r="N35" s="102"/>
     </row>
     <row r="36" spans="1:14" ht="24">
       <c r="A36" s="10"/>
       <c r="B36" s="36">
         <v>24</v>
       </c>
-      <c r="C36" s="139" t="s">
+      <c r="C36" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="151" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" s="143" t="s">
-        <v>203</v>
-      </c>
-      <c r="F36" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G36" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H36" s="144">
-        <v>41832</v>
-      </c>
-      <c r="I36" s="144">
-        <v>41832</v>
-      </c>
-      <c r="J36" s="146">
+      <c r="D36" s="146" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="140" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="140" t="s">
+        <v>239</v>
+      </c>
+      <c r="H36" s="141">
+        <v>42184</v>
+      </c>
+      <c r="I36" s="141">
+        <v>42184</v>
+      </c>
+      <c r="J36" s="142">
         <v>2</v>
       </c>
-      <c r="K36" s="147">
-        <v>41979</v>
-      </c>
-      <c r="L36" s="145">
-        <v>41840</v>
-      </c>
-      <c r="M36" s="104">
+      <c r="K36" s="141">
+        <v>42184</v>
+      </c>
+      <c r="L36" s="141">
+        <v>42184</v>
+      </c>
+      <c r="M36" s="102">
         <v>2</v>
       </c>
-      <c r="N36" s="104"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="10"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="125"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="104"/>
-      <c r="N37" s="104"/>
+      <c r="N36" s="102"/>
+    </row>
+    <row r="37" spans="1:14" ht="12.75" customHeight="1">
+      <c r="B37" s="8"/>
+      <c r="J37" s="103">
+        <f>SUM(J13:J36)</f>
+        <v>40</v>
+      </c>
+      <c r="L37" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" s="103">
+        <f>SUM(M13:M36)</f>
+        <v>41.900000000000006</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="10"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="125"/>
-      <c r="K38" s="103"/>
-      <c r="L38" s="103"/>
-      <c r="M38" s="104"/>
-      <c r="N38" s="104"/>
+      <c r="B38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="10"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="125"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-    </row>
-    <row r="40" spans="1:14" ht="12.75" customHeight="1">
-      <c r="B40" s="36"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="125"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="103"/>
-      <c r="M40" s="104"/>
-      <c r="N40" s="104"/>
-    </row>
-    <row r="41" spans="1:14" ht="12.75" customHeight="1">
-      <c r="B41" s="8"/>
-      <c r="J41" s="105">
-        <f>SUM(J13:J40)</f>
-        <v>40</v>
-      </c>
-      <c r="L41" s="106" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" s="105">
-        <f>SUM(M13:M40)</f>
-        <v>41.900000000000006</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="10"/>
-      <c r="B42" s="8"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="10"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="10"/>
-    </row>
-    <row r="45" spans="1:14" ht="12.75" customHeight="1"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="10"/>
+    </row>
+    <row r="41" spans="1:14" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="D7:F7"/>
@@ -7758,17 +7749,14 @@
     <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D25 D31:D40">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D25 D31:D36">
       <formula1>IF(C24="Fast Track",f_fast,IF(C24="Configuraciones Tipo o Nuevas",f_tipo,IF(C24="Desarrollos Departamentales",f_depar,IF(C24="Desarrollos Adicionales ATIS",f_atis,IF(C24="Definición de Requerimientos",f_req,f_inci)))))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E37:E40">
-      <formula1>IF(C37="Fast Track",e_fast,IF(C37="Configuraciones Tipo o Nuevas",e_tipo,IF(C37="Desarrollos Departamentales",e_depar,IF(C37="Desarrollos Adicionales ATIS",e_atis,IF(C37="Definición de Requerimientos",e_req,e_inci)))))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:D30 D13:D23">
       <formula1>f_depar</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C36">
       <formula1>TipoProy</formula1>
     </dataValidation>
   </dataValidations>
@@ -7787,11 +7775,11 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -7812,22 +7800,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="221"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="215"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="30"/>
@@ -7848,6 +7836,7 @@
       <c r="A3" s="32"/>
       <c r="B3" s="35"/>
       <c r="C3" s="32"/>
+      <c r="E3" s="31"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:15" s="28" customFormat="1" ht="60" customHeight="1">
@@ -7861,7 +7850,7 @@
         <v>123</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>110</v>
@@ -7879,7 +7868,7 @@
         <v>33</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K4" s="27" t="s">
         <v>34</v>
@@ -7898,1102 +7887,1102 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="24">
-      <c r="A5" s="108">
+      <c r="A5" s="106">
         <v>1</v>
       </c>
-      <c r="B5" s="109">
+      <c r="B5" s="107">
         <v>2</v>
       </c>
-      <c r="C5" s="110" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$E$87,2,FALSE)</f>
+      <c r="C5" s="108" t="str">
+        <f>VLOOKUP(B5,Planificación!$B$13:$E$83,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="109" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="108" t="str">
+        <f>VLOOKUP(B5,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>HV</v>
+      </c>
+      <c r="F5" s="108" t="str">
+        <f>VLOOKUP(B5,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>RQ</v>
+      </c>
+      <c r="G5" s="111" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="110" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="112"/>
+      <c r="L5" s="237" t="s">
+        <v>249</v>
+      </c>
+      <c r="M5" s="113">
+        <v>41841</v>
+      </c>
+      <c r="N5" s="114">
+        <v>1</v>
+      </c>
+      <c r="O5" s="126"/>
+    </row>
+    <row r="6" spans="1:15" ht="24">
+      <c r="A6" s="106">
+        <v>2</v>
+      </c>
+      <c r="B6" s="107">
+        <v>1</v>
+      </c>
+      <c r="C6" s="108" t="str">
+        <f>VLOOKUP(B6,Planificación!$B$13:$E$83,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D6" s="109" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="108" t="str">
+        <f>VLOOKUP(B6,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>AL</v>
+      </c>
+      <c r="F6" s="108" t="str">
+        <f>VLOOKUP(B6,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>MC</v>
+      </c>
+      <c r="G6" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="110" t="s">
+        <v>245</v>
+      </c>
+      <c r="K6" s="112"/>
+      <c r="L6" s="237" t="s">
+        <v>248</v>
+      </c>
+      <c r="M6" s="113">
+        <v>41807</v>
+      </c>
+      <c r="N6" s="114">
+        <v>1</v>
+      </c>
+      <c r="O6" s="126"/>
+    </row>
+    <row r="7" spans="1:15" ht="24">
+      <c r="A7" s="106">
+        <v>3</v>
+      </c>
+      <c r="B7" s="107">
+        <v>1</v>
+      </c>
+      <c r="C7" s="108" t="str">
+        <f>VLOOKUP(B7,Planificación!$B$13:$E$83,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D7" s="109" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="108" t="str">
+        <f>VLOOKUP(B7,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>AL</v>
+      </c>
+      <c r="F7" s="108" t="str">
+        <f>VLOOKUP(B7,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>MC</v>
+      </c>
+      <c r="G7" s="111" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="110" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" s="112"/>
+      <c r="L7" s="237" t="s">
+        <v>249</v>
+      </c>
+      <c r="M7" s="113">
+        <v>41807</v>
+      </c>
+      <c r="N7" s="114">
+        <v>1</v>
+      </c>
+      <c r="O7" s="126"/>
+    </row>
+    <row r="8" spans="1:15" ht="24">
+      <c r="A8" s="106">
+        <v>4</v>
+      </c>
+      <c r="B8" s="162">
+        <v>3</v>
+      </c>
+      <c r="C8" s="163" t="str">
+        <f>VLOOKUP(B8,Planificación!$B$13:$E$83,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D8" s="164" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="163" t="str">
+        <f>VLOOKUP(B8,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>AL</v>
+      </c>
+      <c r="F8" s="163" t="str">
+        <f>VLOOKUP(B8,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>MC</v>
+      </c>
+      <c r="G8" s="165" t="s">
+        <v>232</v>
+      </c>
+      <c r="H8" s="166" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="166" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="166" t="s">
+        <v>241</v>
+      </c>
+      <c r="K8" s="167"/>
+      <c r="L8" s="237" t="s">
+        <v>250</v>
+      </c>
+      <c r="M8" s="168">
+        <v>41841</v>
+      </c>
+      <c r="N8" s="169">
+        <v>1</v>
+      </c>
+      <c r="O8" s="170"/>
+    </row>
+    <row r="9" spans="1:15" ht="24">
+      <c r="A9" s="106">
+        <v>5</v>
+      </c>
+      <c r="B9" s="162">
+        <v>3</v>
+      </c>
+      <c r="C9" s="163" t="str">
+        <f>VLOOKUP(B9,Planificación!$B$13:$E$83,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D9" s="164" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="163" t="str">
+        <f>VLOOKUP(B9,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>AL</v>
+      </c>
+      <c r="F9" s="163" t="str">
+        <f>VLOOKUP(B9,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>MC</v>
+      </c>
+      <c r="G9" s="165" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" s="166" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" s="166" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="166" t="s">
+        <v>241</v>
+      </c>
+      <c r="K9" s="167"/>
+      <c r="L9" s="237" t="s">
+        <v>250</v>
+      </c>
+      <c r="M9" s="168">
+        <v>41841</v>
+      </c>
+      <c r="N9" s="169">
+        <v>1</v>
+      </c>
+      <c r="O9" s="170"/>
+    </row>
+    <row r="10" spans="1:15" ht="24">
+      <c r="A10" s="106">
+        <v>6</v>
+      </c>
+      <c r="B10" s="107">
+        <v>2</v>
+      </c>
+      <c r="C10" s="108" t="str">
+        <f>VLOOKUP(B10,Planificación!$B$13:$E$83,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D10" s="109" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="110" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F5" s="110" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G5" s="113" t="s">
+      <c r="E10" s="108" t="str">
+        <f>VLOOKUP(B10,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>HV</v>
+      </c>
+      <c r="F10" s="108" t="str">
+        <f>VLOOKUP(B10,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>RQ</v>
+      </c>
+      <c r="G10" s="111" t="s">
         <v>209</v>
       </c>
-      <c r="H5" s="112" t="s">
+      <c r="H10" s="110" t="s">
         <v>152</v>
       </c>
-      <c r="I5" s="112" t="s">
+      <c r="I10" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="J5" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="115">
-        <v>41835</v>
-      </c>
-      <c r="M5" s="115">
-        <v>41841</v>
-      </c>
-      <c r="N5" s="116">
+      <c r="J10" s="110" t="s">
+        <v>242</v>
+      </c>
+      <c r="K10" s="112"/>
+      <c r="L10" s="237" t="s">
+        <v>251</v>
+      </c>
+      <c r="M10" s="113">
+        <v>41807</v>
+      </c>
+      <c r="N10" s="114">
         <v>1</v>
       </c>
-      <c r="O5" s="129"/>
-    </row>
-    <row r="6" spans="1:15" ht="24">
-      <c r="A6" s="108">
+      <c r="O10" s="126"/>
+    </row>
+    <row r="11" spans="1:15" ht="24">
+      <c r="A11" s="106">
+        <v>7</v>
+      </c>
+      <c r="B11" s="107">
         <v>2</v>
       </c>
-      <c r="B6" s="109">
+      <c r="C11" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="109" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="108" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="108" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="155" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="110" t="s">
+        <v>243</v>
+      </c>
+      <c r="K11" s="112"/>
+      <c r="L11" s="237" t="s">
+        <v>252</v>
+      </c>
+      <c r="M11" s="113">
+        <v>42154</v>
+      </c>
+      <c r="N11" s="114">
         <v>1</v>
       </c>
-      <c r="C6" s="110" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$E$87,2,FALSE)</f>
+      <c r="O11" s="126"/>
+    </row>
+    <row r="12" spans="1:15" ht="24">
+      <c r="A12" s="106">
+        <v>8</v>
+      </c>
+      <c r="B12" s="107">
+        <v>2</v>
+      </c>
+      <c r="C12" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="109" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="108" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="108" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="111" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="110" t="s">
+        <v>241</v>
+      </c>
+      <c r="K12" s="112"/>
+      <c r="L12" s="113">
+        <v>41802</v>
+      </c>
+      <c r="M12" s="113">
+        <v>42167</v>
+      </c>
+      <c r="N12" s="114">
+        <v>1</v>
+      </c>
+      <c r="O12" s="126"/>
+    </row>
+    <row r="13" spans="1:15" ht="24">
+      <c r="A13" s="106">
+        <v>9</v>
+      </c>
+      <c r="B13" s="107">
+        <v>2</v>
+      </c>
+      <c r="C13" s="108" t="str">
+        <f>VLOOKUP(B13,Planificación!$B$13:$E$83,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D6" s="111" t="s">
+      <c r="D13" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="108" t="str">
+        <f>VLOOKUP(B13,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>HV</v>
+      </c>
+      <c r="F13" s="108" t="str">
+        <f>VLOOKUP(B13,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>RQ</v>
+      </c>
+      <c r="G13" s="111" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="110" t="s">
+        <v>239</v>
+      </c>
+      <c r="K13" s="112"/>
+      <c r="L13" s="237" t="s">
+        <v>253</v>
+      </c>
+      <c r="M13" s="113">
+        <v>41787</v>
+      </c>
+      <c r="N13" s="114">
+        <v>1</v>
+      </c>
+      <c r="O13" s="126"/>
+    </row>
+    <row r="14" spans="1:15" s="171" customFormat="1" ht="24">
+      <c r="A14" s="106">
+        <v>10</v>
+      </c>
+      <c r="B14" s="162">
+        <v>3</v>
+      </c>
+      <c r="C14" s="163" t="str">
+        <f>VLOOKUP(B14,Planificación!$B$13:$E$83,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D14" s="164" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="163" t="str">
+        <f>VLOOKUP(B14,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>AL</v>
+      </c>
+      <c r="F14" s="163" t="str">
+        <f>VLOOKUP(B14,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>MC</v>
+      </c>
+      <c r="G14" s="172" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="166" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="166" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="166" t="s">
+        <v>247</v>
+      </c>
+      <c r="K14" s="167"/>
+      <c r="L14" s="237" t="s">
+        <v>255</v>
+      </c>
+      <c r="M14" s="168" t="s">
+        <v>268</v>
+      </c>
+      <c r="N14" s="169">
+        <v>1</v>
+      </c>
+      <c r="O14" s="170"/>
+    </row>
+    <row r="15" spans="1:15" ht="24">
+      <c r="A15" s="106">
+        <v>11</v>
+      </c>
+      <c r="B15" s="107">
+        <v>2</v>
+      </c>
+      <c r="C15" s="108" t="str">
+        <f>VLOOKUP(B15,Planificación!$B$13:$E$83,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D15" s="109" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="108" t="str">
+        <f>VLOOKUP(B15,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>HV</v>
+      </c>
+      <c r="F15" s="108" t="str">
+        <f>VLOOKUP(B15,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>RQ</v>
+      </c>
+      <c r="G15" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="110" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F6" s="110" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G6" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="112" t="s">
+      <c r="H15" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="110" t="s">
+        <v>246</v>
+      </c>
+      <c r="K15" s="112"/>
+      <c r="L15" s="237" t="s">
+        <v>254</v>
+      </c>
+      <c r="M15" s="113" t="s">
+        <v>269</v>
+      </c>
+      <c r="N15" s="114">
+        <v>1</v>
+      </c>
+      <c r="O15" s="126"/>
+    </row>
+    <row r="16" spans="1:15" ht="24">
+      <c r="A16" s="106">
+        <v>12</v>
+      </c>
+      <c r="B16" s="107">
+        <v>2</v>
+      </c>
+      <c r="C16" s="108" t="str">
+        <f>VLOOKUP(B16,Planificación!$B$13:$E$83,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D16" s="109" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="108" t="str">
+        <f>VLOOKUP(B16,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>HV</v>
+      </c>
+      <c r="F16" s="108" t="str">
+        <f>VLOOKUP(B16,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>RQ</v>
+      </c>
+      <c r="G16" s="111" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="110" t="s">
         <v>152</v>
       </c>
-      <c r="I6" s="112" t="s">
+      <c r="I16" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="K6" s="114"/>
-      <c r="L6" s="115">
-        <v>41802</v>
-      </c>
-      <c r="M6" s="115">
-        <v>41807</v>
-      </c>
-      <c r="N6" s="116">
+      <c r="J16" s="110" t="s">
+        <v>239</v>
+      </c>
+      <c r="K16" s="112"/>
+      <c r="L16" s="237" t="s">
+        <v>256</v>
+      </c>
+      <c r="M16" s="113">
+        <v>42154</v>
+      </c>
+      <c r="N16" s="114">
         <v>1</v>
       </c>
-      <c r="O6" s="129"/>
-    </row>
-    <row r="7" spans="1:15" ht="24">
-      <c r="A7" s="108">
+      <c r="O16" s="126"/>
+    </row>
+    <row r="17" spans="1:15" ht="24">
+      <c r="A17" s="106">
+        <v>13</v>
+      </c>
+      <c r="B17" s="107">
+        <v>2</v>
+      </c>
+      <c r="C17" s="108" t="str">
+        <f>VLOOKUP(B17,Planificación!$B$13:$E$83,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D17" s="109" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="108" t="str">
+        <f>VLOOKUP(B17,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>HV</v>
+      </c>
+      <c r="F17" s="108" t="str">
+        <f>VLOOKUP(B17,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>RQ</v>
+      </c>
+      <c r="G17" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="110" t="s">
+        <v>239</v>
+      </c>
+      <c r="K17" s="112"/>
+      <c r="L17" s="237" t="s">
+        <v>257</v>
+      </c>
+      <c r="M17" s="113">
+        <v>42157</v>
+      </c>
+      <c r="N17" s="114">
+        <v>1</v>
+      </c>
+      <c r="O17" s="126"/>
+    </row>
+    <row r="18" spans="1:15" ht="36" customHeight="1">
+      <c r="A18" s="106">
+        <v>14</v>
+      </c>
+      <c r="B18" s="107">
+        <v>2</v>
+      </c>
+      <c r="C18" s="108" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$E$83,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D18" s="109" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="108" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>HV</v>
+      </c>
+      <c r="F18" s="108" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>RQ</v>
+      </c>
+      <c r="G18" s="111" t="s">
+        <v>231</v>
+      </c>
+      <c r="H18" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I18" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="110" t="s">
+        <v>242</v>
+      </c>
+      <c r="K18" s="112"/>
+      <c r="L18" s="237" t="s">
+        <v>258</v>
+      </c>
+      <c r="M18" s="113">
+        <v>42167</v>
+      </c>
+      <c r="N18" s="114">
+        <v>1</v>
+      </c>
+      <c r="O18" s="126"/>
+    </row>
+    <row r="19" spans="1:15" ht="24">
+      <c r="A19" s="106">
+        <v>15</v>
+      </c>
+      <c r="B19" s="107">
+        <v>2</v>
+      </c>
+      <c r="C19" s="108" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$E$83,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D19" s="109" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" s="108" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>HV</v>
+      </c>
+      <c r="F19" s="108" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>RQ</v>
+      </c>
+      <c r="G19" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="H19" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I19" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="110" t="s">
+        <v>242</v>
+      </c>
+      <c r="K19" s="112"/>
+      <c r="L19" s="237" t="s">
+        <v>259</v>
+      </c>
+      <c r="M19" s="113">
+        <v>42167</v>
+      </c>
+      <c r="N19" s="114">
+        <v>2</v>
+      </c>
+      <c r="O19" s="126"/>
+    </row>
+    <row r="20" spans="1:15" ht="24">
+      <c r="A20" s="106">
+        <v>16</v>
+      </c>
+      <c r="B20" s="107">
+        <v>2</v>
+      </c>
+      <c r="C20" s="108" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$E$83,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D20" s="109" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="108" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>HV</v>
+      </c>
+      <c r="F20" s="108" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>RQ</v>
+      </c>
+      <c r="G20" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="H20" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="110" t="s">
+        <v>242</v>
+      </c>
+      <c r="K20" s="112"/>
+      <c r="L20" s="237" t="s">
+        <v>259</v>
+      </c>
+      <c r="M20" s="113">
+        <v>42172</v>
+      </c>
+      <c r="N20" s="114">
+        <v>2</v>
+      </c>
+      <c r="O20" s="126"/>
+    </row>
+    <row r="21" spans="1:15" ht="24">
+      <c r="A21" s="106">
+        <v>17</v>
+      </c>
+      <c r="B21" s="107">
+        <v>2</v>
+      </c>
+      <c r="C21" s="108" t="str">
+        <f>VLOOKUP(B21,Planificación!$B$13:$E$83,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D21" s="109" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="108" t="str">
+        <f>VLOOKUP(B21,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>HV</v>
+      </c>
+      <c r="F21" s="108" t="str">
+        <f>VLOOKUP(B21,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>RQ</v>
+      </c>
+      <c r="G21" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I21" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="110" t="s">
+        <v>239</v>
+      </c>
+      <c r="K21" s="112"/>
+      <c r="L21" s="237" t="s">
+        <v>260</v>
+      </c>
+      <c r="M21" s="113">
+        <v>42172</v>
+      </c>
+      <c r="N21" s="114">
+        <v>2</v>
+      </c>
+      <c r="O21" s="126"/>
+    </row>
+    <row r="22" spans="1:15" ht="24">
+      <c r="A22" s="106">
+        <v>18</v>
+      </c>
+      <c r="B22" s="107">
+        <v>2</v>
+      </c>
+      <c r="C22" s="108" t="str">
+        <f>VLOOKUP(B22,Planificación!$B$13:$E$83,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D22" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="108" t="str">
+        <f>VLOOKUP(B22,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>HV</v>
+      </c>
+      <c r="F22" s="108" t="str">
+        <f>VLOOKUP(B22,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>RQ</v>
+      </c>
+      <c r="G22" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="H22" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="110" t="s">
+        <v>238</v>
+      </c>
+      <c r="K22" s="112"/>
+      <c r="L22" s="237" t="s">
+        <v>261</v>
+      </c>
+      <c r="M22" s="113">
+        <v>42172</v>
+      </c>
+      <c r="N22" s="114">
         <v>3</v>
       </c>
-      <c r="B7" s="109">
-        <v>1</v>
-      </c>
-      <c r="C7" s="110" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$E$87,2,FALSE)</f>
+      <c r="O22" s="126"/>
+    </row>
+    <row r="23" spans="1:15" ht="36">
+      <c r="A23" s="106">
+        <v>19</v>
+      </c>
+      <c r="B23" s="107">
+        <v>2</v>
+      </c>
+      <c r="C23" s="108" t="str">
+        <f>VLOOKUP(B23,Planificación!$B$13:$E$83,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D7" s="111" t="s">
-        <v>181</v>
-      </c>
-      <c r="E7" s="110" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F7" s="110" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G7" s="113" t="s">
-        <v>210</v>
-      </c>
-      <c r="H7" s="112" t="s">
+      <c r="D23" s="109" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" s="108" t="str">
+        <f>VLOOKUP(B23,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>HV</v>
+      </c>
+      <c r="F23" s="108" t="str">
+        <f>VLOOKUP(B23,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>RQ</v>
+      </c>
+      <c r="G23" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="H23" s="110" t="s">
         <v>152</v>
       </c>
-      <c r="I7" s="112" t="s">
+      <c r="I23" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="K7" s="114"/>
-      <c r="L7" s="115">
-        <v>41802</v>
-      </c>
-      <c r="M7" s="115">
-        <v>41807</v>
-      </c>
-      <c r="N7" s="116">
-        <v>1</v>
-      </c>
-      <c r="O7" s="129"/>
-    </row>
-    <row r="8" spans="1:15" ht="24">
-      <c r="A8" s="108">
-        <v>4</v>
-      </c>
-      <c r="B8" s="169">
+      <c r="J23" s="110" t="s">
+        <v>239</v>
+      </c>
+      <c r="K23" s="112"/>
+      <c r="L23" s="237" t="s">
+        <v>262</v>
+      </c>
+      <c r="M23" s="113">
+        <v>42172</v>
+      </c>
+      <c r="N23" s="114">
+        <v>2</v>
+      </c>
+      <c r="O23" s="126"/>
+    </row>
+    <row r="24" spans="1:15" ht="36">
+      <c r="A24" s="106">
+        <v>20</v>
+      </c>
+      <c r="B24" s="107">
+        <v>2</v>
+      </c>
+      <c r="C24" s="108" t="str">
+        <f>VLOOKUP(B24,Planificación!$B$13:$E$83,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D24" s="109" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" s="108" t="str">
+        <f>VLOOKUP(B24,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>HV</v>
+      </c>
+      <c r="F24" s="108" t="str">
+        <f>VLOOKUP(B24,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>RQ</v>
+      </c>
+      <c r="G24" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="H24" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="110" t="s">
+        <v>241</v>
+      </c>
+      <c r="K24" s="112"/>
+      <c r="L24" s="237" t="s">
+        <v>263</v>
+      </c>
+      <c r="M24" s="113">
+        <v>42176</v>
+      </c>
+      <c r="N24" s="114">
+        <v>2</v>
+      </c>
+      <c r="O24" s="126"/>
+    </row>
+    <row r="25" spans="1:15" ht="36">
+      <c r="A25" s="106">
+        <v>21</v>
+      </c>
+      <c r="B25" s="107">
+        <v>2</v>
+      </c>
+      <c r="C25" s="108" t="str">
+        <f>VLOOKUP(B25,Planificación!$B$13:$E$83,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D25" s="109" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="108" t="str">
+        <f>VLOOKUP(B25,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>HV</v>
+      </c>
+      <c r="F25" s="108" t="str">
+        <f>VLOOKUP(B25,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>RQ</v>
+      </c>
+      <c r="G25" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="H25" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I25" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25" s="110" t="s">
+        <v>241</v>
+      </c>
+      <c r="K25" s="112"/>
+      <c r="L25" s="237" t="s">
+        <v>264</v>
+      </c>
+      <c r="M25" s="113">
+        <v>42176</v>
+      </c>
+      <c r="N25" s="114">
         <v>3</v>
       </c>
-      <c r="C8" s="170" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$E$87,2,FALSE)</f>
+      <c r="O25" s="126"/>
+    </row>
+    <row r="26" spans="1:15" ht="24">
+      <c r="A26" s="106">
+        <v>22</v>
+      </c>
+      <c r="B26" s="107">
+        <v>2</v>
+      </c>
+      <c r="C26" s="108" t="str">
+        <f>VLOOKUP(B26,Planificación!$B$13:$E$83,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D8" s="171" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" s="170" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F8" s="170" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G8" s="172" t="s">
+      <c r="D26" s="109" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="108" t="str">
+        <f>VLOOKUP(B26,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>HV</v>
+      </c>
+      <c r="F26" s="108" t="str">
+        <f>VLOOKUP(B26,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>RQ</v>
+      </c>
+      <c r="G26" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="H26" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J26" s="110" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" s="112"/>
+      <c r="L26" s="237" t="s">
+        <v>265</v>
+      </c>
+      <c r="M26" s="113">
+        <v>42185</v>
+      </c>
+      <c r="N26" s="114">
+        <v>9</v>
+      </c>
+      <c r="O26" s="126"/>
+    </row>
+    <row r="27" spans="1:15" ht="36">
+      <c r="A27" s="106">
+        <v>23</v>
+      </c>
+      <c r="B27" s="107">
+        <v>2</v>
+      </c>
+      <c r="C27" s="108" t="str">
+        <f>VLOOKUP(B27,Planificación!$B$13:$E$83,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D27" s="109" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="108" t="str">
+        <f>VLOOKUP(B27,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>HV</v>
+      </c>
+      <c r="F27" s="108" t="str">
+        <f>VLOOKUP(B27,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>RQ</v>
+      </c>
+      <c r="G27" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="H27" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="110" t="s">
         <v>239</v>
       </c>
-      <c r="H8" s="173" t="s">
+      <c r="K27" s="112"/>
+      <c r="L27" s="237" t="s">
+        <v>266</v>
+      </c>
+      <c r="M27" s="113">
+        <v>42185</v>
+      </c>
+      <c r="N27" s="114">
+        <v>10</v>
+      </c>
+      <c r="O27" s="126"/>
+    </row>
+    <row r="28" spans="1:15" ht="24">
+      <c r="A28" s="106">
+        <v>24</v>
+      </c>
+      <c r="B28" s="107">
+        <v>2</v>
+      </c>
+      <c r="C28" s="108" t="str">
+        <f>VLOOKUP(B28,Planificación!$B$13:$E$83,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D28" s="109" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28" s="108" t="str">
+        <f>VLOOKUP(B28,Planificación!$B$13:$F$83,5,FALSE)</f>
+        <v>HV</v>
+      </c>
+      <c r="F28" s="108" t="str">
+        <f>VLOOKUP(B28,Planificación!$B$13:$G$83,6,FALSE)</f>
+        <v>RQ</v>
+      </c>
+      <c r="G28" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="H28" s="110" t="s">
         <v>152</v>
       </c>
-      <c r="I8" s="173" t="s">
+      <c r="I28" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="173" t="s">
-        <v>170</v>
-      </c>
-      <c r="K8" s="174"/>
-      <c r="L8" s="175">
-        <v>41835</v>
-      </c>
-      <c r="M8" s="175">
-        <v>41841</v>
-      </c>
-      <c r="N8" s="176">
-        <v>1</v>
-      </c>
-      <c r="O8" s="177"/>
-    </row>
-    <row r="9" spans="1:15" ht="24">
-      <c r="A9" s="108">
-        <v>5</v>
-      </c>
-      <c r="B9" s="169">
-        <v>3</v>
-      </c>
-      <c r="C9" s="170" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$E$87,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D9" s="171" t="s">
-        <v>212</v>
-      </c>
-      <c r="E9" s="170" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F9" s="170" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G9" s="172" t="s">
-        <v>213</v>
-      </c>
-      <c r="H9" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9" s="173" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="173" t="s">
-        <v>214</v>
-      </c>
-      <c r="K9" s="174"/>
-      <c r="L9" s="175">
-        <v>41835</v>
-      </c>
-      <c r="M9" s="175">
-        <v>41841</v>
-      </c>
-      <c r="N9" s="176">
-        <v>1</v>
-      </c>
-      <c r="O9" s="177"/>
-    </row>
-    <row r="10" spans="1:15" ht="24">
-      <c r="A10" s="108">
-        <v>6</v>
-      </c>
-      <c r="B10" s="109">
-        <v>2</v>
-      </c>
-      <c r="C10" s="110" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$E$87,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D10" s="111" t="s">
-        <v>215</v>
-      </c>
-      <c r="E10" s="110" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F10" s="110" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G10" s="113" t="s">
-        <v>216</v>
-      </c>
-      <c r="H10" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="K10" s="114"/>
-      <c r="L10" s="115">
-        <v>41802</v>
-      </c>
-      <c r="M10" s="115">
-        <v>41807</v>
-      </c>
-      <c r="N10" s="116">
-        <v>1</v>
-      </c>
-      <c r="O10" s="129"/>
-    </row>
-    <row r="11" spans="1:15" ht="24">
-      <c r="A11" s="108">
-        <v>7</v>
-      </c>
-      <c r="B11" s="109">
-        <v>2</v>
-      </c>
-      <c r="C11" s="110" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="111" t="s">
-        <v>236</v>
-      </c>
-      <c r="E11" s="110" t="s">
-        <v>170</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="160" t="s">
-        <v>218</v>
-      </c>
-      <c r="H11" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I11" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="K11" s="114"/>
-      <c r="L11" s="115">
-        <v>41802</v>
-      </c>
-      <c r="M11" s="115">
-        <v>41807</v>
-      </c>
-      <c r="N11" s="116">
-        <v>1</v>
-      </c>
-      <c r="O11" s="129"/>
-    </row>
-    <row r="12" spans="1:15" ht="24">
-      <c r="A12" s="108">
-        <v>8</v>
-      </c>
-      <c r="B12" s="109">
-        <v>2</v>
-      </c>
-      <c r="C12" s="110" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="111" t="s">
-        <v>217</v>
-      </c>
-      <c r="E12" s="110" t="s">
-        <v>170</v>
-      </c>
-      <c r="F12" s="110" t="s">
-        <v>169</v>
-      </c>
-      <c r="G12" s="113" t="s">
-        <v>219</v>
-      </c>
-      <c r="H12" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I12" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="K12" s="114"/>
-      <c r="L12" s="115">
-        <v>41802</v>
-      </c>
-      <c r="M12" s="115">
-        <v>41807</v>
-      </c>
-      <c r="N12" s="116">
-        <v>1</v>
-      </c>
-      <c r="O12" s="129"/>
-    </row>
-    <row r="13" spans="1:15" ht="24">
-      <c r="A13" s="108">
-        <v>9</v>
-      </c>
-      <c r="B13" s="109">
-        <v>2</v>
-      </c>
-      <c r="C13" s="110" t="str">
-        <f>VLOOKUP(B13,Planificación!$B$13:$E$87,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D13" s="111" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="110" t="str">
-        <f>VLOOKUP(B13,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F13" s="110" t="str">
-        <f>VLOOKUP(B13,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G13" s="113" t="s">
-        <v>221</v>
-      </c>
-      <c r="H13" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I13" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="K13" s="114"/>
-      <c r="L13" s="115">
-        <v>41802</v>
-      </c>
-      <c r="M13" s="115">
-        <v>41807</v>
-      </c>
-      <c r="N13" s="116">
-        <v>1</v>
-      </c>
-      <c r="O13" s="129"/>
-    </row>
-    <row r="14" spans="1:15" s="178" customFormat="1" ht="24">
-      <c r="A14" s="108">
-        <v>10</v>
-      </c>
-      <c r="B14" s="169">
-        <v>3</v>
-      </c>
-      <c r="C14" s="170" t="str">
-        <f>VLOOKUP(B14,Planificación!$B$13:$E$87,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D14" s="171" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" s="170" t="str">
-        <f>VLOOKUP(B14,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F14" s="170" t="str">
-        <f>VLOOKUP(B14,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G14" s="179" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="I14" s="173" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" s="173" t="s">
-        <v>170</v>
-      </c>
-      <c r="K14" s="174"/>
-      <c r="L14" s="175">
-        <v>41835</v>
-      </c>
-      <c r="M14" s="175">
-        <v>41841</v>
-      </c>
-      <c r="N14" s="176">
-        <v>1</v>
-      </c>
-      <c r="O14" s="177"/>
-    </row>
-    <row r="15" spans="1:15" ht="24">
-      <c r="A15" s="108">
+      <c r="J28" s="110" t="s">
+        <v>243</v>
+      </c>
+      <c r="K28" s="112"/>
+      <c r="L28" s="237" t="s">
+        <v>267</v>
+      </c>
+      <c r="M28" s="113">
+        <v>42185</v>
+      </c>
+      <c r="N28" s="114">
         <v>11</v>
       </c>
-      <c r="B15" s="109">
-        <v>2</v>
-      </c>
-      <c r="C15" s="110" t="str">
-        <f>VLOOKUP(B15,Planificación!$B$13:$E$87,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D15" s="111" t="s">
-        <v>222</v>
-      </c>
-      <c r="E15" s="110" t="str">
-        <f>VLOOKUP(B15,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F15" s="110" t="str">
-        <f>VLOOKUP(B15,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G15" s="113" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="I15" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="112" t="s">
-        <v>186</v>
-      </c>
-      <c r="K15" s="114"/>
-      <c r="L15" s="115">
-        <v>41802</v>
-      </c>
-      <c r="M15" s="115">
-        <v>41807</v>
-      </c>
-      <c r="N15" s="116">
-        <v>1</v>
-      </c>
-      <c r="O15" s="129"/>
-    </row>
-    <row r="16" spans="1:15" ht="24">
-      <c r="A16" s="108">
-        <v>12</v>
-      </c>
-      <c r="B16" s="109">
-        <v>2</v>
-      </c>
-      <c r="C16" s="110" t="str">
-        <f>VLOOKUP(B16,Planificación!$B$13:$E$87,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D16" s="111" t="s">
-        <v>235</v>
-      </c>
-      <c r="E16" s="110" t="str">
-        <f>VLOOKUP(B16,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F16" s="110" t="str">
-        <f>VLOOKUP(B16,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G16" s="113" t="s">
-        <v>185</v>
-      </c>
-      <c r="H16" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I16" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16" s="112" t="s">
-        <v>187</v>
-      </c>
-      <c r="K16" s="114"/>
-      <c r="L16" s="115">
-        <v>41802</v>
-      </c>
-      <c r="M16" s="115">
-        <v>41807</v>
-      </c>
-      <c r="N16" s="116">
-        <v>1</v>
-      </c>
-      <c r="O16" s="129"/>
-    </row>
-    <row r="17" spans="1:15" ht="24">
-      <c r="A17" s="108">
-        <v>13</v>
-      </c>
-      <c r="B17" s="109">
-        <v>2</v>
-      </c>
-      <c r="C17" s="110" t="str">
-        <f>VLOOKUP(B17,Planificación!$B$13:$E$87,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D17" s="111" t="s">
-        <v>234</v>
-      </c>
-      <c r="E17" s="110" t="str">
-        <f>VLOOKUP(B17,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F17" s="110" t="str">
-        <f>VLOOKUP(B17,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G17" s="113" t="s">
-        <v>237</v>
-      </c>
-      <c r="H17" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I17" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17" s="112" t="s">
-        <v>187</v>
-      </c>
-      <c r="K17" s="114"/>
-      <c r="L17" s="115">
-        <v>41814</v>
-      </c>
-      <c r="M17" s="115">
-        <v>41816</v>
-      </c>
-      <c r="N17" s="116">
-        <v>1</v>
-      </c>
-      <c r="O17" s="129"/>
-    </row>
-    <row r="18" spans="1:15" ht="36" customHeight="1">
-      <c r="A18" s="108">
-        <v>14</v>
-      </c>
-      <c r="B18" s="109">
-        <v>2</v>
-      </c>
-      <c r="C18" s="110" t="str">
-        <f>VLOOKUP(B18,Planificación!$B$13:$E$87,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D18" s="111" t="s">
-        <v>184</v>
-      </c>
-      <c r="E18" s="110" t="str">
-        <f>VLOOKUP(B18,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F18" s="110" t="str">
-        <f>VLOOKUP(B18,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G18" s="113" t="s">
-        <v>238</v>
-      </c>
-      <c r="H18" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I18" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="K18" s="114"/>
-      <c r="L18" s="115">
-        <v>41802</v>
-      </c>
-      <c r="M18" s="115">
-        <v>41807</v>
-      </c>
-      <c r="N18" s="116">
-        <v>1</v>
-      </c>
-      <c r="O18" s="129"/>
-    </row>
-    <row r="19" spans="1:15" ht="24">
-      <c r="A19" s="108">
-        <v>15</v>
-      </c>
-      <c r="B19" s="109">
-        <v>2</v>
-      </c>
-      <c r="C19" s="110" t="str">
-        <f>VLOOKUP(B19,Planificación!$B$13:$E$87,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D19" s="111" t="s">
-        <v>233</v>
-      </c>
-      <c r="E19" s="110" t="str">
-        <f>VLOOKUP(B19,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F19" s="110" t="str">
-        <f>VLOOKUP(B19,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G19" s="113" t="s">
-        <v>237</v>
-      </c>
-      <c r="H19" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I19" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="J19" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="K19" s="114"/>
-      <c r="L19" s="115">
-        <v>41802</v>
-      </c>
-      <c r="M19" s="115">
-        <v>41807</v>
-      </c>
-      <c r="N19" s="116">
-        <v>2</v>
-      </c>
-      <c r="O19" s="129"/>
-    </row>
-    <row r="20" spans="1:15" ht="24">
-      <c r="A20" s="108">
-        <v>16</v>
-      </c>
-      <c r="B20" s="109">
-        <v>2</v>
-      </c>
-      <c r="C20" s="110" t="str">
-        <f>VLOOKUP(B20,Planificación!$B$13:$E$87,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D20" s="111" t="s">
-        <v>232</v>
-      </c>
-      <c r="E20" s="110" t="str">
-        <f>VLOOKUP(B20,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F20" s="110" t="str">
-        <f>VLOOKUP(B20,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G20" s="113" t="s">
-        <v>237</v>
-      </c>
-      <c r="H20" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I20" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="K20" s="114"/>
-      <c r="L20" s="115">
-        <v>41802</v>
-      </c>
-      <c r="M20" s="115">
-        <v>41807</v>
-      </c>
-      <c r="N20" s="116">
-        <v>3</v>
-      </c>
-      <c r="O20" s="129"/>
-    </row>
-    <row r="21" spans="1:15" ht="24">
-      <c r="A21" s="108">
-        <v>17</v>
-      </c>
-      <c r="B21" s="109">
-        <v>2</v>
-      </c>
-      <c r="C21" s="110" t="str">
-        <f>VLOOKUP(B21,Planificación!$B$13:$E$87,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D21" s="111" t="s">
-        <v>231</v>
-      </c>
-      <c r="E21" s="110" t="str">
-        <f>VLOOKUP(B21,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F21" s="110" t="str">
-        <f>VLOOKUP(B21,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G21" s="113" t="s">
-        <v>237</v>
-      </c>
-      <c r="H21" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I21" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="J21" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="K21" s="114"/>
-      <c r="L21" s="115">
-        <v>41802</v>
-      </c>
-      <c r="M21" s="115">
-        <v>41807</v>
-      </c>
-      <c r="N21" s="116">
-        <v>4</v>
-      </c>
-      <c r="O21" s="129"/>
-    </row>
-    <row r="22" spans="1:15" ht="24">
-      <c r="A22" s="108">
-        <v>18</v>
-      </c>
-      <c r="B22" s="109">
-        <v>2</v>
-      </c>
-      <c r="C22" s="110" t="str">
-        <f>VLOOKUP(B22,Planificación!$B$13:$E$87,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D22" s="111" t="s">
-        <v>230</v>
-      </c>
-      <c r="E22" s="110" t="str">
-        <f>VLOOKUP(B22,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F22" s="110" t="str">
-        <f>VLOOKUP(B22,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G22" s="113" t="s">
-        <v>237</v>
-      </c>
-      <c r="H22" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I22" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="J22" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="K22" s="114"/>
-      <c r="L22" s="115">
-        <v>41802</v>
-      </c>
-      <c r="M22" s="115">
-        <v>41807</v>
-      </c>
-      <c r="N22" s="116">
-        <v>5</v>
-      </c>
-      <c r="O22" s="129"/>
-    </row>
-    <row r="23" spans="1:15" ht="36">
-      <c r="A23" s="108">
-        <v>19</v>
-      </c>
-      <c r="B23" s="109">
-        <v>2</v>
-      </c>
-      <c r="C23" s="110" t="str">
-        <f>VLOOKUP(B23,Planificación!$B$13:$E$87,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D23" s="111" t="s">
-        <v>229</v>
-      </c>
-      <c r="E23" s="110" t="str">
-        <f>VLOOKUP(B23,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F23" s="110" t="str">
-        <f>VLOOKUP(B23,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G23" s="113" t="s">
-        <v>237</v>
-      </c>
-      <c r="H23" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I23" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="K23" s="114"/>
-      <c r="L23" s="115">
-        <v>41802</v>
-      </c>
-      <c r="M23" s="115">
-        <v>41807</v>
-      </c>
-      <c r="N23" s="116">
-        <v>6</v>
-      </c>
-      <c r="O23" s="129"/>
-    </row>
-    <row r="24" spans="1:15" ht="36">
-      <c r="A24" s="108">
-        <v>20</v>
-      </c>
-      <c r="B24" s="109">
-        <v>2</v>
-      </c>
-      <c r="C24" s="110" t="str">
-        <f>VLOOKUP(B24,Planificación!$B$13:$E$87,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D24" s="111" t="s">
-        <v>228</v>
-      </c>
-      <c r="E24" s="110" t="str">
-        <f>VLOOKUP(B24,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F24" s="110" t="str">
-        <f>VLOOKUP(B24,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G24" s="113" t="s">
-        <v>237</v>
-      </c>
-      <c r="H24" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I24" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="K24" s="114"/>
-      <c r="L24" s="115">
-        <v>41802</v>
-      </c>
-      <c r="M24" s="115">
-        <v>41807</v>
-      </c>
-      <c r="N24" s="116">
-        <v>7</v>
-      </c>
-      <c r="O24" s="129"/>
-    </row>
-    <row r="25" spans="1:15" ht="36">
-      <c r="A25" s="108">
-        <v>21</v>
-      </c>
-      <c r="B25" s="109">
-        <v>2</v>
-      </c>
-      <c r="C25" s="110" t="str">
-        <f>VLOOKUP(B25,Planificación!$B$13:$E$87,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D25" s="111" t="s">
-        <v>227</v>
-      </c>
-      <c r="E25" s="110" t="str">
-        <f>VLOOKUP(B25,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F25" s="110" t="str">
-        <f>VLOOKUP(B25,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G25" s="113" t="s">
-        <v>237</v>
-      </c>
-      <c r="H25" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I25" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="K25" s="114"/>
-      <c r="L25" s="115">
-        <v>41802</v>
-      </c>
-      <c r="M25" s="115">
-        <v>41807</v>
-      </c>
-      <c r="N25" s="116">
-        <v>8</v>
-      </c>
-      <c r="O25" s="129"/>
-    </row>
-    <row r="26" spans="1:15" ht="24">
-      <c r="A26" s="108">
-        <v>22</v>
-      </c>
-      <c r="B26" s="109">
-        <v>2</v>
-      </c>
-      <c r="C26" s="110" t="str">
-        <f>VLOOKUP(B26,Planificación!$B$13:$E$87,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D26" s="111" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" s="110" t="str">
-        <f>VLOOKUP(B26,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F26" s="110" t="str">
-        <f>VLOOKUP(B26,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G26" s="113" t="s">
-        <v>237</v>
-      </c>
-      <c r="H26" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I26" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="J26" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="K26" s="114"/>
-      <c r="L26" s="115">
-        <v>41802</v>
-      </c>
-      <c r="M26" s="115">
-        <v>41807</v>
-      </c>
-      <c r="N26" s="116">
-        <v>9</v>
-      </c>
-      <c r="O26" s="129"/>
-    </row>
-    <row r="27" spans="1:15" ht="36">
-      <c r="A27" s="108">
-        <v>23</v>
-      </c>
-      <c r="B27" s="109">
-        <v>2</v>
-      </c>
-      <c r="C27" s="110" t="str">
-        <f>VLOOKUP(B27,Planificación!$B$13:$E$87,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D27" s="111" t="s">
-        <v>225</v>
-      </c>
-      <c r="E27" s="110" t="str">
-        <f>VLOOKUP(B27,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F27" s="110" t="str">
-        <f>VLOOKUP(B27,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G27" s="113" t="s">
-        <v>237</v>
-      </c>
-      <c r="H27" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I27" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="J27" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="K27" s="114"/>
-      <c r="L27" s="115">
-        <v>41802</v>
-      </c>
-      <c r="M27" s="115">
-        <v>41807</v>
-      </c>
-      <c r="N27" s="116">
-        <v>10</v>
-      </c>
-      <c r="O27" s="129"/>
-    </row>
-    <row r="28" spans="1:15" ht="24">
-      <c r="A28" s="108">
-        <v>24</v>
-      </c>
-      <c r="B28" s="109">
-        <v>2</v>
-      </c>
-      <c r="C28" s="110" t="str">
-        <f>VLOOKUP(B28,Planificación!$B$13:$E$87,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D28" s="111" t="s">
-        <v>224</v>
-      </c>
-      <c r="E28" s="110" t="str">
-        <f>VLOOKUP(B28,Planificación!$B$13:$F$87,5,FALSE)</f>
-        <v>YM</v>
-      </c>
-      <c r="F28" s="110" t="str">
-        <f>VLOOKUP(B28,Planificación!$B$13:$G$87,6,FALSE)</f>
-        <v>BC</v>
-      </c>
-      <c r="G28" s="113" t="s">
-        <v>237</v>
-      </c>
-      <c r="H28" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="I28" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="J28" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="K28" s="114"/>
-      <c r="L28" s="115">
-        <v>41802</v>
-      </c>
-      <c r="M28" s="115">
-        <v>41807</v>
-      </c>
-      <c r="N28" s="116">
-        <v>11</v>
-      </c>
-      <c r="O28" s="129"/>
+      <c r="O28" s="126"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="19"/>
@@ -9198,7 +9187,7 @@
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H28">
       <formula1>TiposNC</formula1>
     </dataValidation>
@@ -9222,8 +9211,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:K62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9238,107 +9227,107 @@
   <sheetData>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="13"/>
-      <c r="C2" s="235" t="s">
+      <c r="C2" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="A3" s="14"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="14"/>
-      <c r="C4" s="236" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="236"/>
-      <c r="E4" s="225" t="str">
+      <c r="C4" s="230" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="230"/>
+      <c r="E4" s="219" t="str">
         <f>IF(Planificación!D6&lt;&gt;"",Planificación!D6,"")</f>
-        <v>YM</v>
-      </c>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
-      <c r="H4" s="226"/>
-      <c r="I4" s="227"/>
+        <v>AL</v>
+      </c>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="221"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="14"/>
-      <c r="C5" s="237" t="str">
+      <c r="C5" s="231" t="str">
         <f>Planificación!B7</f>
         <v>Gestor de Calidad</v>
       </c>
-      <c r="D5" s="238"/>
-      <c r="E5" s="225" t="str">
+      <c r="D5" s="232"/>
+      <c r="E5" s="219" t="str">
         <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
-        <v>BC</v>
-      </c>
-      <c r="F5" s="226"/>
-      <c r="G5" s="226"/>
-      <c r="H5" s="226"/>
-      <c r="I5" s="227"/>
+        <v>HV</v>
+      </c>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="221"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="14"/>
-      <c r="C6" s="223" t="s">
+      <c r="C6" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="224"/>
-      <c r="E6" s="225" t="str">
+      <c r="D6" s="218"/>
+      <c r="E6" s="219" t="str">
         <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
-        <v>HM, JG, RR</v>
-      </c>
-      <c r="F6" s="226"/>
-      <c r="G6" s="226"/>
-      <c r="H6" s="226"/>
-      <c r="I6" s="227"/>
+        <v>MC,GO,RQ,HV</v>
+      </c>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="221"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="C7" s="229" t="s">
+      <c r="C7" s="223" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="229"/>
-      <c r="E7" s="230" t="str">
+      <c r="D7" s="223"/>
+      <c r="E7" s="224">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
-        <v>dd/mm/yyyy</v>
-      </c>
-      <c r="F7" s="231"/>
-      <c r="G7" s="232" t="s">
+        <v>42175</v>
+      </c>
+      <c r="F7" s="225"/>
+      <c r="G7" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="233"/>
-      <c r="I7" s="117" t="str">
+      <c r="H7" s="227"/>
+      <c r="I7" s="115">
         <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
-        <v>dd/mm/yyyy</v>
+        <v>42205</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="14"/>
-      <c r="C8" s="229" t="s">
+      <c r="C8" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="234"/>
-      <c r="E8" s="225" t="str">
+      <c r="D8" s="228"/>
+      <c r="E8" s="219" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
         <v>JULIO</v>
       </c>
-      <c r="F8" s="226"/>
-      <c r="G8" s="226"/>
-      <c r="H8" s="226"/>
-      <c r="I8" s="227"/>
+      <c r="F8" s="220"/>
+      <c r="G8" s="220"/>
+      <c r="H8" s="220"/>
+      <c r="I8" s="221"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="C13" s="228" t="s">
+      <c r="C13" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="228"/>
+      <c r="D13" s="222"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -9347,46 +9336,46 @@
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="118">
-        <f>COUNTA(Planificación!C13:C40)</f>
+      <c r="D14" s="116">
+        <f>COUNTA(Planificación!C13:C36)</f>
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="118">
+      <c r="D15" s="116">
         <f>D14-D16</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="140">
-        <f>COUNTA(Planificación!L13:L39)</f>
+      <c r="D16" s="137">
+        <f>COUNTA(Planificación!L13:L36)</f>
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="120" t="s">
+      <c r="C17" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="119">
+      <c r="D17" s="117">
         <f>(D16/(IF(D14=0,1,D14)))</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="119">
+      <c r="D18" s="117">
         <f>1-D17</f>
         <v>0</v>
       </c>
@@ -9397,35 +9386,35 @@
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="131"/>
+      <c r="C20" s="128"/>
       <c r="D20" s="26"/>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="131"/>
+      <c r="C21" s="128"/>
       <c r="D21" s="26"/>
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="131"/>
+      <c r="C22" s="128"/>
       <c r="D22" s="26"/>
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="131"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="26"/>
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="131"/>
+      <c r="C24" s="128"/>
       <c r="D24" s="26"/>
       <c r="E24" s="12"/>
     </row>
     <row r="26" spans="3:5" ht="15" customHeight="1">
-      <c r="C26" s="222" t="s">
+      <c r="C26" s="216" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="222"/>
+      <c r="D26" s="216"/>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="34" t="s">
@@ -9436,106 +9425,106 @@
       </c>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="141">
+      <c r="D28" s="138">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C28)</f>
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="121" t="s">
+      <c r="C29" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="141">
+      <c r="D29" s="138">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C29)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="121" t="s">
+      <c r="C30" s="119" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="141">
+      <c r="D30" s="138">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="121" t="s">
+      <c r="C31" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="141">
+      <c r="D31" s="138">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="121" t="s">
+      <c r="C32" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="141">
+      <c r="D32" s="138">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="121" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="141">
+      <c r="C33" s="119" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="138">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="122" t="s">
+      <c r="C34" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="142">
+      <c r="D34" s="139">
         <f>SUM(D28:D33)</f>
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="15">
-      <c r="C40" s="222" t="s">
+      <c r="C40" s="216" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="222"/>
+      <c r="D40" s="216"/>
     </row>
     <row r="41" spans="3:4">
-      <c r="C41" s="122" t="s">
+      <c r="C41" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="141">
-        <f>Planificación!J41</f>
+      <c r="D41" s="138">
+        <f>Planificación!J37</f>
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="3:4">
-      <c r="C42" s="122" t="s">
+      <c r="C42" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="141">
-        <f>Planificación!M41</f>
+      <c r="D42" s="138">
+        <f>Planificación!M37</f>
         <v>41.900000000000006</v>
       </c>
     </row>
     <row r="43" spans="3:4">
-      <c r="C43" s="122" t="s">
+      <c r="C43" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="141">
+      <c r="D43" s="138">
         <f>D41-D42</f>
         <v>-1.9000000000000057</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="222" t="s">
+      <c r="C57" s="216" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="222"/>
+      <c r="D57" s="216"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="34" t="s">
@@ -9546,37 +9535,37 @@
       </c>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="124" t="s">
+      <c r="C59" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="141">
+      <c r="D59" s="138">
         <f>COUNTIF('Seguimiento de NC'!$I$5:$I$141,C59)</f>
         <v>24</v>
       </c>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="124" t="s">
+      <c r="C60" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="141">
+      <c r="D60" s="138">
         <f>COUNTIF('Seguimiento de NC'!$I$5:$I$141,C60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="3:4">
-      <c r="C61" s="124" t="s">
+      <c r="C61" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="D61" s="141">
+      <c r="D61" s="138">
         <f>COUNTIF('Seguimiento de NC'!$I$5:$I$141,C61)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="3:4">
-      <c r="C62" s="122" t="s">
+      <c r="C62" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="142">
+      <c r="D62" s="139">
         <f>SUM(D59:D61)</f>
         <v>24</v>
       </c>
@@ -9638,351 +9627,351 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="123" t="s">
+      <c r="J2" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="123" t="s">
+      <c r="K2" s="121" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A3" s="133"/>
-      <c r="B3" s="133"/>
-      <c r="D3" s="124" t="s">
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="D3" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="124" t="s">
-        <v>161</v>
-      </c>
-      <c r="H3" s="124" t="s">
+      <c r="F3" s="122" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="239" t="s">
+      <c r="J3" s="233" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="137" t="s">
+      <c r="K3" s="134" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="240" t="s">
+      <c r="A4" s="234" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="131" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="122" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="233"/>
+      <c r="K4" s="134" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="235"/>
+      <c r="B5" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="124" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="124" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" s="124" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="239"/>
-      <c r="K4" s="137" t="s">
+      <c r="D5" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="122" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="122" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="233"/>
+      <c r="K5" s="134" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="235"/>
+      <c r="B6" s="132" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="122" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="122"/>
+      <c r="J6" s="233"/>
+      <c r="K6" s="134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="235"/>
+      <c r="B7" s="132" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="122"/>
+      <c r="J7" s="233" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="134" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="235"/>
+      <c r="B8" s="132" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="122"/>
+      <c r="J8" s="233"/>
+      <c r="K8" s="134" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="235"/>
+      <c r="B9" s="135"/>
+      <c r="J9" s="233"/>
+      <c r="K9" s="134" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="241"/>
-      <c r="B5" s="135" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="124" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="124" t="s">
-        <v>153</v>
-      </c>
-      <c r="H5" s="124" t="s">
-        <v>155</v>
-      </c>
-      <c r="J5" s="239"/>
-      <c r="K5" s="137" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="235"/>
+      <c r="B10" s="132"/>
+      <c r="F10" s="127"/>
+      <c r="J10" s="233"/>
+      <c r="K10" s="134" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="235"/>
+      <c r="B11" s="132"/>
+      <c r="F11" s="127"/>
+      <c r="J11" s="233"/>
+      <c r="K11" s="134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A12" s="236"/>
+      <c r="B12" s="133"/>
+      <c r="F12" s="127"/>
+      <c r="J12" s="233"/>
+      <c r="K12" s="134" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="241"/>
-      <c r="B6" s="135" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="124" t="s">
-        <v>154</v>
-      </c>
-      <c r="H6" s="124"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="137" t="s">
+    <row r="13" spans="1:11">
+      <c r="J13" s="233"/>
+      <c r="K13" s="134" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="241"/>
-      <c r="B7" s="135" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="124" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="124"/>
-      <c r="J7" s="239" t="s">
-        <v>125</v>
-      </c>
-      <c r="K7" s="137" t="s">
+    <row r="14" spans="1:11">
+      <c r="J14" s="233" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" s="134" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="J15" s="233"/>
+      <c r="K15" s="134" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="J16" s="233"/>
+      <c r="K16" s="134" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11">
+      <c r="J17" s="233"/>
+      <c r="K17" s="134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11">
+      <c r="J18" s="233"/>
+      <c r="K18" s="134" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11">
+      <c r="J19" s="233"/>
+      <c r="K19" s="134" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11">
+      <c r="J20" s="233"/>
+      <c r="K20" s="134" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11">
+      <c r="J21" s="233"/>
+      <c r="K21" s="134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11">
+      <c r="J22" s="233"/>
+      <c r="K22" s="134" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="10:11">
+      <c r="J23" s="233"/>
+      <c r="K23" s="134" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="10:11">
+      <c r="J24" s="233" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="134" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="10:11">
+      <c r="J25" s="233"/>
+      <c r="K25" s="134" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="241"/>
-      <c r="B8" s="135" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8" s="124" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="124"/>
-      <c r="J8" s="239"/>
-      <c r="K8" s="137" t="s">
+    <row r="26" spans="10:11">
+      <c r="J26" s="233"/>
+      <c r="K26" s="134" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="10:11">
+      <c r="J27" s="233"/>
+      <c r="K27" s="134" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="10:11">
+      <c r="J28" s="233"/>
+      <c r="K28" s="134" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="10:11">
+      <c r="J29" s="233"/>
+      <c r="K29" s="134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="10:11">
+      <c r="J30" s="233"/>
+      <c r="K30" s="134" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="10:11">
+      <c r="J31" s="233" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" s="134" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="10:11">
+      <c r="J32" s="233"/>
+      <c r="K32" s="134" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" s="233"/>
+      <c r="K33" s="134" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34" s="233"/>
+      <c r="K34" s="134" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11">
+      <c r="J35" s="233"/>
+      <c r="K35" s="134" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11">
+      <c r="J36" s="233" t="s">
+        <v>121</v>
+      </c>
+      <c r="K36" s="134" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="241"/>
-      <c r="B9" s="138"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="137" t="s">
+    <row r="37" spans="10:11">
+      <c r="J37" s="233"/>
+      <c r="K37" s="134" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="241"/>
-      <c r="B10" s="135"/>
-      <c r="F10" s="130"/>
-      <c r="J10" s="239"/>
-      <c r="K10" s="137" t="s">
+    <row r="38" spans="10:11">
+      <c r="J38" s="233"/>
+      <c r="K38" s="134" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11">
+      <c r="J39" s="233"/>
+      <c r="K39" s="134" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11">
+      <c r="J40" s="233"/>
+      <c r="K40" s="134" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="241"/>
-      <c r="B11" s="135"/>
-      <c r="F11" s="130"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="137" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A12" s="242"/>
-      <c r="B12" s="136"/>
-      <c r="F12" s="130"/>
-      <c r="J12" s="239"/>
-      <c r="K12" s="137" t="s">
+    <row r="41" spans="10:11">
+      <c r="J41" s="233"/>
+      <c r="K41" s="134" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="J13" s="239"/>
-      <c r="K13" s="137" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="J14" s="239" t="s">
-        <v>118</v>
-      </c>
-      <c r="K14" s="137" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="J15" s="239"/>
-      <c r="K15" s="137" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="J16" s="239"/>
-      <c r="K16" s="137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="10:11">
-      <c r="J17" s="239"/>
-      <c r="K17" s="137" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="10:11">
-      <c r="J18" s="239"/>
-      <c r="K18" s="137" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="10:11">
-      <c r="J19" s="239"/>
-      <c r="K19" s="137" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="10:11">
-      <c r="J20" s="239"/>
-      <c r="K20" s="137" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="10:11">
-      <c r="J21" s="239"/>
-      <c r="K21" s="137" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="10:11">
-      <c r="J22" s="239"/>
-      <c r="K22" s="137" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="10:11">
-      <c r="J23" s="239"/>
-      <c r="K23" s="137" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="10:11">
-      <c r="J24" s="239" t="s">
-        <v>119</v>
-      </c>
-      <c r="K24" s="137" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="10:11">
-      <c r="J25" s="239"/>
-      <c r="K25" s="137" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="10:11">
-      <c r="J26" s="239"/>
-      <c r="K26" s="137" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="10:11">
-      <c r="J27" s="239"/>
-      <c r="K27" s="137" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="10:11">
-      <c r="J28" s="239"/>
-      <c r="K28" s="137" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="10:11">
-      <c r="J29" s="239"/>
-      <c r="K29" s="137" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="10:11">
-      <c r="J30" s="239"/>
-      <c r="K30" s="137" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="10:11">
-      <c r="J31" s="239" t="s">
-        <v>120</v>
-      </c>
-      <c r="K31" s="137" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="10:11">
-      <c r="J32" s="239"/>
-      <c r="K32" s="137" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="10:11">
-      <c r="J33" s="239"/>
-      <c r="K33" s="137" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="10:11">
-      <c r="J34" s="239"/>
-      <c r="K34" s="137" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="10:11">
-      <c r="J35" s="239"/>
-      <c r="K35" s="137" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="10:11">
-      <c r="J36" s="239" t="s">
-        <v>121</v>
-      </c>
-      <c r="K36" s="137" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="10:11">
-      <c r="J37" s="239"/>
-      <c r="K37" s="137" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="10:11">
-      <c r="J38" s="239"/>
-      <c r="K38" s="137" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="10:11">
-      <c r="J39" s="239"/>
-      <c r="K39" s="137" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="10:11">
-      <c r="J40" s="239"/>
-      <c r="K40" s="137" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="10:11">
-      <c r="J41" s="239"/>
-      <c r="K41" s="137" t="s">
-        <v>129</v>
-      </c>
-    </row>
     <row r="42" spans="10:11">
-      <c r="J42" s="239"/>
-      <c r="K42" s="137" t="s">
+      <c r="J42" s="233"/>
+      <c r="K42" s="134" t="s">
         <v>130</v>
       </c>
     </row>
